--- a/data_h1/results/ex_post_returns.xlsx
+++ b/data_h1/results/ex_post_returns.xlsx
@@ -521,49 +521,49 @@
         <v>41670</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01469591835289304</v>
+        <v>-0.01469591870204894</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01253037285917769</v>
+        <v>-0.01253037381324344</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01665992956423532</v>
+        <v>-0.01665992966145066</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01701365960299303</v>
+        <v>-0.01701365945118162</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01735748530481101</v>
+        <v>-0.01735748572814153</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01826303240279201</v>
+        <v>-0.0182630322843351</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0204714240557384</v>
+        <v>-0.02047142385884769</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03050321369739398</v>
+        <v>-0.03050321397379918</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.05090477953329905</v>
+        <v>-0.05090477989424501</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.05097506091928865</v>
+        <v>-0.0509750617354393</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.05919109570659694</v>
+        <v>-0.05919109499983838</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.08228646383141303</v>
+        <v>-0.08228646881003171</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.120252919776642</v>
+        <v>-0.1202529239411975</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.1728139829137678</v>
+        <v>-0.172813992415595</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.2534607570496792</v>
+        <v>-0.2534607572675774</v>
       </c>
     </row>
     <row r="3">
@@ -571,49 +571,49 @@
         <v>41698</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0515445017819815</v>
+        <v>0.05154450092773086</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05131940567137094</v>
+        <v>0.05131940623323017</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04627380715888382</v>
+        <v>0.0462738072914239</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04480845813986556</v>
+        <v>0.04480845819561523</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04114953646893224</v>
+        <v>0.04114953657574529</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03720074702042629</v>
+        <v>0.03720074693007873</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03750897429485891</v>
+        <v>0.03750897412602842</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03674564073838109</v>
+        <v>0.03674564054457271</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03614901928880779</v>
+        <v>0.03614901909508514</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03694657750440978</v>
+        <v>0.03694657673159564</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03492499354082692</v>
+        <v>0.03492499394079829</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02944933592753128</v>
+        <v>0.02944933071056007</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02493625984492479</v>
+        <v>0.02493625627613067</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02166385835152276</v>
+        <v>0.02166384782890103</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03181201164603746</v>
+        <v>-0.03181201087379659</v>
       </c>
     </row>
     <row r="4">
@@ -621,49 +621,49 @@
         <v>41729</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006410426360874759</v>
+        <v>0.006410426755394992</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0117917637538684</v>
+        <v>0.01179176178874994</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0173669721371622</v>
+        <v>0.01736697221182107</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01757185154588489</v>
+        <v>0.01757185152896417</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01659527496409166</v>
+        <v>0.01659527523473471</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01399735756891556</v>
+        <v>0.01399735762336455</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007563291897677061</v>
+        <v>0.007563291916148176</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.002388195937935528</v>
+        <v>-0.002388195993970522</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.005237347602863717</v>
+        <v>-0.005237347740410736</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.01160797062375472</v>
+        <v>-0.01160797020619131</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.01450433238232335</v>
+        <v>-0.01450433227109355</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.009632949959858375</v>
+        <v>-0.00963294611841365</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0004751796178079325</v>
+        <v>0.0004751826604359813</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01872067696470568</v>
+        <v>0.01872068287170598</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04573050063101324</v>
+        <v>0.04573050053922172</v>
       </c>
     </row>
     <row r="5">
@@ -671,49 +671,49 @@
         <v>41759</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01285077302103246</v>
+        <v>0.01285077248854837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0141104077808699</v>
+        <v>0.0141104071779366</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01950663309678646</v>
+        <v>0.0195066330152831</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02209298187996598</v>
+        <v>0.02209298200529595</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02179994853301555</v>
+        <v>0.02179994888519318</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01763542099422299</v>
+        <v>0.01763542099612766</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0167389494730391</v>
+        <v>0.01673894964104827</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02115473752456936</v>
+        <v>0.02115473751717831</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02670634846751298</v>
+        <v>0.02670634880013674</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03166400879940984</v>
+        <v>0.03166400959250711</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03781184732282387</v>
+        <v>0.0378118463772478</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04708264321447984</v>
+        <v>0.04708264786461643</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06113830351957192</v>
+        <v>0.06113830688747356</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07263173560368663</v>
+        <v>0.07263174437997422</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1183236467517923</v>
+        <v>0.1183236468269066</v>
       </c>
     </row>
     <row r="6">
@@ -721,49 +721,49 @@
         <v>41789</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01602974017766829</v>
+        <v>0.01602973982555911</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01862491942076799</v>
+        <v>0.01862491792462663</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01850462763605007</v>
+        <v>0.01850462762487761</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02422685572653825</v>
+        <v>0.02422685587672301</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03049664087808517</v>
+        <v>0.03049664095974593</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03152260048392399</v>
+        <v>0.03152260054108678</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03346972491316241</v>
+        <v>0.03346972491287328</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03531418777443342</v>
+        <v>0.03531418771506285</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03742552395984797</v>
+        <v>0.03742552399942199</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03363103855003249</v>
+        <v>0.03363103860384716</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02985824736465621</v>
+        <v>0.02985824698200523</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02936891274138913</v>
+        <v>0.02936891397450402</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03316098810296633</v>
+        <v>0.0331609888147119</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03200689076952699</v>
+        <v>0.03200689150484373</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02373071915132334</v>
+        <v>0.02373071922558556</v>
       </c>
     </row>
     <row r="7">
@@ -771,49 +771,49 @@
         <v>41820</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0006587708342256139</v>
+        <v>0.000658770532822989</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.001851392118913126</v>
+        <v>-0.001851391371978264</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003032538961425739</v>
+        <v>-0.003032539015362451</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.001448726344886399</v>
+        <v>-0.001448726366804156</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0008696478239220737</v>
+        <v>-0.0008696480584566135</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0003309206102634597</v>
+        <v>-0.000330920857241547</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004760896981339709</v>
+        <v>0.004760896890260558</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01203858654411313</v>
+        <v>0.01203858621039823</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02049833287562173</v>
+        <v>0.02049833325246013</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03049052291847949</v>
+        <v>0.0304905227021212</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04195114214836597</v>
+        <v>0.04195114188660269</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05390825153678867</v>
+        <v>0.05390824798739188</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06427403438758031</v>
+        <v>0.06427403212687574</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07866099923227964</v>
+        <v>0.07866099627187426</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1080641907720133</v>
+        <v>0.1080641907028792</v>
       </c>
     </row>
     <row r="8">
@@ -821,49 +821,49 @@
         <v>41851</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.02688093695444354</v>
+        <v>-0.02688093647035524</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0286640228142377</v>
+        <v>-0.02866402328334451</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02752497332615851</v>
+        <v>-0.02752497342176077</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02938217571627409</v>
+        <v>-0.02938217578526821</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0284354377986876</v>
+        <v>-0.02843543809441192</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02674193732411387</v>
+        <v>-0.02674193722265643</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.02384002769666957</v>
+        <v>-0.02384002776179567</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02303954263455105</v>
+        <v>-0.02303954236620018</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.02637059345866022</v>
+        <v>-0.02637059370969665</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.02359440792230069</v>
+        <v>-0.02359440776348001</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0237776049217796</v>
+        <v>-0.02377760455113527</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.02774917881231507</v>
+        <v>-0.027749176046129</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0405215643558795</v>
+        <v>-0.04052156221455761</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.04736199376742287</v>
+        <v>-0.04736198740813044</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.01736500906235645</v>
+        <v>-0.01736500943513008</v>
       </c>
     </row>
     <row r="9">
@@ -871,49 +871,49 @@
         <v>41880</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0006748053110110645</v>
+        <v>-0.0006748052967743925</v>
       </c>
       <c r="C9" t="n">
-        <v>-8.112943882509268e-06</v>
+        <v>-8.113180275960481e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.000156695406933121</v>
+        <v>-0.0001566954541579605</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.001073399692014828</v>
+        <v>-0.001073399654186496</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.002033762406177693</v>
+        <v>-0.002033762573717456</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.004177309365590061</v>
+        <v>-0.004177309426824345</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.007427902838332541</v>
+        <v>-0.007427902795886508</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01411146492615205</v>
+        <v>-0.01411146501555519</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.02109081704498849</v>
+        <v>-0.02109081716994564</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.02763281495084833</v>
+        <v>-0.02763281439739555</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.03830990896180803</v>
+        <v>-0.03830990907828558</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05241950708660631</v>
+        <v>-0.05241950237827747</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.06449407677167787</v>
+        <v>-0.06449407351451253</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.0785202903187778</v>
+        <v>-0.07852028289289276</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.07511836146906199</v>
+        <v>-0.07511836148127964</v>
       </c>
     </row>
     <row r="10">
@@ -921,49 +921,49 @@
         <v>41912</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.01961081986997518</v>
+        <v>-0.01961082010378315</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01641046880737079</v>
+        <v>-0.01641047080191439</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0222183429565455</v>
+        <v>-0.02221834286060643</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.023871075956064</v>
+        <v>-0.02387107610383885</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02599674578456744</v>
+        <v>-0.02599674574973921</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02641352807992293</v>
+        <v>-0.02641352792945564</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.02933082140859306</v>
+        <v>-0.02933082135494537</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03277315939027419</v>
+        <v>-0.03277315919831589</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.03461700584068478</v>
+        <v>-0.03461700571802667</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.03337262573749905</v>
+        <v>-0.03337262539862763</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.03182049712648261</v>
+        <v>-0.03182049782014649</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.02942107674857435</v>
+        <v>-0.02942107266826646</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02652824596393904</v>
+        <v>-0.02652824256608346</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.02254130396631246</v>
+        <v>-0.02254129722254923</v>
       </c>
       <c r="P10" t="n">
-        <v>0.00215331370117602</v>
+        <v>0.002153313218110455</v>
       </c>
     </row>
     <row r="11">
@@ -971,49 +971,49 @@
         <v>41943</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.01074289456975982</v>
+        <v>-0.01074289431162805</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.006978318896321793</v>
+        <v>-0.006978319313373504</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002721186718816205</v>
+        <v>0.002721186651273655</v>
       </c>
       <c r="E11" t="n">
-        <v>0.005300887325326404</v>
+        <v>0.005300887386075302</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01046034817485556</v>
+        <v>0.01046034827394012</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01205447895575914</v>
+        <v>0.01205447874595033</v>
       </c>
       <c r="H11" t="n">
-        <v>0.008359334736557315</v>
+        <v>0.00835933460193267</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001562551880529665</v>
+        <v>0.001562551943191754</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.007598744457625158</v>
+        <v>-0.007598744302137085</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.01428128034776804</v>
+        <v>-0.01428128014808654</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.02659746905248122</v>
+        <v>-0.02659746909515452</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.04318477948220094</v>
+        <v>-0.04318477915103033</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.06168187397995276</v>
+        <v>-0.06168187398597623</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.07614707602014989</v>
+        <v>-0.07614707343073383</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0667647548755977</v>
+        <v>-0.06676475510021193</v>
       </c>
     </row>
     <row r="12">
@@ -1021,49 +1021,49 @@
         <v>41971</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01962704518023037</v>
+        <v>0.01962704553407692</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0216995718511614</v>
+        <v>0.02169957116708722</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02364139431189301</v>
+        <v>0.02364139421298787</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02606912286519264</v>
+        <v>0.02606912283715816</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03066248206220951</v>
+        <v>0.03066248220351925</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03046191332432547</v>
+        <v>0.03046191339377995</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03263019189713075</v>
+        <v>0.032630191686043</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03289528285756589</v>
+        <v>0.03289528300726218</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03777122082129428</v>
+        <v>0.03777122069480675</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03305809901663747</v>
+        <v>0.03305809934187721</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02173450036579625</v>
+        <v>0.02173449994582764</v>
       </c>
       <c r="M12" t="n">
-        <v>0.007209277308204714</v>
+        <v>0.007209280130110082</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.00597151714510668</v>
+        <v>-0.005971515163591639</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.02535239024885328</v>
+        <v>-0.02535238652412874</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.03673736502162425</v>
+        <v>-0.03673736484793554</v>
       </c>
     </row>
     <row r="13">
@@ -1071,49 +1071,49 @@
         <v>42004</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.03700314735154983</v>
+        <v>-0.03700314683342495</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03415339368591275</v>
+        <v>-0.03415339227885378</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.023860902452679</v>
+        <v>-0.02386090246666246</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01805151282167364</v>
+        <v>-0.01805151272354466</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01149584770686051</v>
+        <v>-0.01149584750327177</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.005777911183428719</v>
+        <v>-0.005777911193473387</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.00304301278381488</v>
+        <v>-0.003043012729612945</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.006054870690856888</v>
+        <v>-0.006054870644514003</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.01063804158850892</v>
+        <v>-0.01063804150170655</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01111678180094842</v>
+        <v>-0.01111678179911955</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.01230378134112532</v>
+        <v>-0.01230378058320537</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.01042024733451385</v>
+        <v>-0.01042024706333819</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.006802663492478711</v>
+        <v>-0.006802663760564346</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.01850476115100343</v>
+        <v>-0.01850476174211538</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04121425482642358</v>
+        <v>-0.04121425508580116</v>
       </c>
     </row>
     <row r="14">
@@ -1121,49 +1121,49 @@
         <v>42034</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.01516963230466898</v>
+        <v>-0.01516963198959651</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01672447942565243</v>
+        <v>-0.01672447891198277</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.001441207002326221</v>
+        <v>-0.00144120696147772</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00208179217140787</v>
+        <v>0.002081792160366834</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006021252877208616</v>
+        <v>0.00602125318696275</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01008399011367191</v>
+        <v>0.01008399006828968</v>
       </c>
       <c r="H14" t="n">
-        <v>0.007721997012138408</v>
+        <v>0.007721996944181508</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00430803687305577</v>
+        <v>0.004308036928634545</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002820430592179781</v>
+        <v>0.002820430598161721</v>
       </c>
       <c r="K14" t="n">
-        <v>0.003454667707801355</v>
+        <v>0.00345466788216612</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.003717259061820733</v>
+        <v>-0.00371725954077243</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.01768589521159681</v>
+        <v>-0.01768589395027168</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.0379027395123044</v>
+        <v>-0.03790273861782714</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.0648274235563067</v>
+        <v>-0.06482742186253769</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.08864510393173376</v>
+        <v>-0.08864510402724629</v>
       </c>
     </row>
     <row r="15">
@@ -1171,49 +1171,49 @@
         <v>42062</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03578696487792898</v>
+        <v>0.03578696519637248</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03533109008246368</v>
+        <v>0.03533108937896265</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03335869104500239</v>
+        <v>0.03335869087822075</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0323837477848326</v>
+        <v>0.03238374775776969</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03341890898729052</v>
+        <v>0.0334189087625627</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02922672408109807</v>
+        <v>0.02922672416538911</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03211982434865786</v>
+        <v>0.03211982450891342</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04043363516416182</v>
+        <v>0.04043363489029055</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05407351120849772</v>
+        <v>0.05407351085482132</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06925626707371535</v>
+        <v>0.06925626688537781</v>
       </c>
       <c r="L15" t="n">
-        <v>0.08802710705660957</v>
+        <v>0.08802710795259208</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1063651240170764</v>
+        <v>0.1063651255174183</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1242590443018606</v>
+        <v>0.1242590447223349</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1248747426562857</v>
+        <v>0.1248747426282717</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1034521756403315</v>
+        <v>0.1034521764242186</v>
       </c>
     </row>
     <row r="16">
@@ -1221,49 +1221,49 @@
         <v>42094</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.01227934088739089</v>
+        <v>-0.01227934135129275</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.01116865009222668</v>
+        <v>-0.01116864874197963</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.008745043380807458</v>
+        <v>-0.008745043397930207</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.007668205297006472</v>
+        <v>-0.007668205393278109</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.009284716572937579</v>
+        <v>-0.009284716601985751</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.004281089536554965</v>
+        <v>-0.004281089690544445</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.008718040314567709</v>
+        <v>-0.008718040531162225</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.01553655779569004</v>
+        <v>-0.01553655732457394</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.02843415487517953</v>
+        <v>-0.02843415486765151</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.04282393999785016</v>
+        <v>-0.04282393999194261</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.05654507076463784</v>
+        <v>-0.0565450697349838</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.06267234305213201</v>
+        <v>-0.06267234328593568</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06326308178466533</v>
+        <v>-0.06326308246275936</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.05811873968165247</v>
+        <v>-0.05811874089818846</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.06285871681707084</v>
+        <v>-0.06285871705504974</v>
       </c>
     </row>
     <row r="17">
@@ -1271,49 +1271,49 @@
         <v>42124</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03289390500606152</v>
+        <v>0.03289390526330679</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03137498461522217</v>
+        <v>0.03137498696285181</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03276727984571797</v>
+        <v>0.03276727996787006</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03248458905895595</v>
+        <v>0.03248458902618951</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03432620279803705</v>
+        <v>0.03432620274657513</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04264007516968291</v>
+        <v>0.04264007540739517</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04526932865650208</v>
+        <v>0.0452693286257812</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04696163896871948</v>
+        <v>0.04696163905992862</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05162626955852738</v>
+        <v>0.05162626931865595</v>
       </c>
       <c r="K17" t="n">
-        <v>0.05893576651887908</v>
+        <v>0.05893576637894157</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05983977695150122</v>
+        <v>0.05983977721852385</v>
       </c>
       <c r="M17" t="n">
-        <v>0.05906928977636701</v>
+        <v>0.05906928999326213</v>
       </c>
       <c r="N17" t="n">
-        <v>0.05326572354786377</v>
+        <v>0.05326572409382171</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05556274829121977</v>
+        <v>0.05556274832583991</v>
       </c>
       <c r="P17" t="n">
-        <v>0.05902979514475582</v>
+        <v>0.05902979567913168</v>
       </c>
     </row>
     <row r="18">
@@ -1321,49 +1321,49 @@
         <v>42153</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.00533467412268611</v>
+        <v>-0.005334674519806754</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.009106674082670655</v>
+        <v>-0.009106673130844779</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.008907224958865062</v>
+        <v>-0.008907224835567452</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01274852756977825</v>
+        <v>-0.0127485275751026</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01698700361805943</v>
+        <v>-0.01698700382755012</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0142551681374722</v>
+        <v>-0.01425516820552446</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.01023886310661122</v>
+        <v>-0.01023886300050326</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.006958654533676074</v>
+        <v>-0.006958654710140676</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.005575747066020447</v>
+        <v>-0.005575747052484014</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002735329145719816</v>
+        <v>0.002735328875136896</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008913179738648684</v>
+        <v>0.008913180136147916</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01009811071496773</v>
+        <v>0.01009810723704742</v>
       </c>
       <c r="N18" t="n">
-        <v>0.005759295717078925</v>
+        <v>0.005759293347178404</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0004487143905822135</v>
+        <v>0.0004487095856832899</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.01285700454492364</v>
+        <v>-0.0128570044413191</v>
       </c>
     </row>
     <row r="19">
@@ -1371,49 +1371,49 @@
         <v>42185</v>
       </c>
       <c r="B19" t="n">
-        <v>0.001359934062058055</v>
+        <v>0.001359933923560245</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.001048638200604033</v>
+        <v>-0.001048637278048107</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002631855885163108</v>
+        <v>-0.002631855939825059</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.004071806105745501</v>
+        <v>-0.004071806163557908</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.007294179177569081</v>
+        <v>-0.007294179049731318</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.00783988517115939</v>
+        <v>-0.007839885089760355</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.01041116090552044</v>
+        <v>-0.01041116094268636</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.01152096239179769</v>
+        <v>-0.01152096264874759</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01906137725436882</v>
+        <v>-0.01906137718047638</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.02526950701134601</v>
+        <v>-0.0252695076798424</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.02524392918755653</v>
+        <v>-0.025243928457908</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.02028564075016647</v>
+        <v>-0.02028564575444881</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.01605407615920527</v>
+        <v>-0.01605407996880542</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0002660895450452422</v>
+        <v>0.0002660844303469303</v>
       </c>
       <c r="P19" t="n">
-        <v>0.02657852925023016</v>
+        <v>0.02657852909450779</v>
       </c>
     </row>
     <row r="20">
@@ -1421,49 +1421,49 @@
         <v>42216</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02377992733032105</v>
+        <v>0.02377992675339308</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03144446603408171</v>
+        <v>0.03144446173249257</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03812396263121996</v>
+        <v>0.03812396261946278</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04279348868524828</v>
+        <v>0.04279348866327307</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04630678068336196</v>
+        <v>0.04630678086312758</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05262302127053018</v>
+        <v>0.05262302131563955</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05127551628420925</v>
+        <v>0.05127551623494701</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04905987712370027</v>
+        <v>0.04905987682473158</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05253008742253004</v>
+        <v>0.0525300871507339</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04925193358574579</v>
+        <v>0.04925193253467269</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04971491100136935</v>
+        <v>0.04971491195468919</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05292761934241479</v>
+        <v>0.05292761508546413</v>
       </c>
       <c r="N20" t="n">
-        <v>0.06200734143303699</v>
+        <v>0.06200733785334209</v>
       </c>
       <c r="O20" t="n">
-        <v>0.09156173284899652</v>
+        <v>0.09156172619452127</v>
       </c>
       <c r="P20" t="n">
-        <v>0.111860542134559</v>
+        <v>0.1118605423019239</v>
       </c>
     </row>
     <row r="21">
@@ -1471,49 +1471,49 @@
         <v>42247</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.03020157908208388</v>
+        <v>-0.03020157957488521</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.03144937134749705</v>
+        <v>-0.03144937048556098</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.03245391009280051</v>
+        <v>-0.03245391023235522</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.03584529073613393</v>
+        <v>-0.03584529074743616</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.03928487908928478</v>
+        <v>-0.03928487900316897</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.04306053999589846</v>
+        <v>-0.04306054009205739</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.04745620555524218</v>
+        <v>-0.04745620548722749</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.04358308433384486</v>
+        <v>-0.04358308436333235</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.04018925371762135</v>
+        <v>-0.04018925351122766</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.02918743949707918</v>
+        <v>-0.02918744034571124</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01285912011753456</v>
+        <v>-0.01285911990428731</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002483715177754989</v>
+        <v>0.002483709509559495</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01721939561893606</v>
+        <v>0.017219391440483</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02801414498686015</v>
+        <v>0.02801413461916906</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.0001546648529748747</v>
+        <v>-0.0001546653855742887</v>
       </c>
     </row>
     <row r="22">
@@ -1521,49 +1521,49 @@
         <v>42277</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.005551938838104089</v>
+        <v>-0.005551939343517974</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.00895412453104256</v>
+        <v>-0.008954125417199459</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0120209904781874</v>
+        <v>-0.01202099052207867</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.01234776385597123</v>
+        <v>-0.01234776390284515</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01163205223493344</v>
+        <v>-0.01163205267095637</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.008137601330260714</v>
+        <v>-0.00813760142570525</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.005531215429093813</v>
+        <v>-0.005531215432003612</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.004500000996709145</v>
+        <v>-0.004500000786380237</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.006777308944748648</v>
+        <v>-0.006777309005448646</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.01153369282341444</v>
+        <v>-0.01153369308339493</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.01400914783857093</v>
+        <v>-0.014009147345545</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0156121833644421</v>
+        <v>-0.01561218505614501</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.02134052875378778</v>
+        <v>-0.02134053113739468</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.03011832133315556</v>
+        <v>-0.03011832350524826</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.03371642680195248</v>
+        <v>-0.03371642722989066</v>
       </c>
     </row>
     <row r="23">
@@ -1571,49 +1571,49 @@
         <v>42307</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02400306094913349</v>
+        <v>0.02400306142337879</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02392168297525214</v>
+        <v>0.02392168136767926</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02891565983723046</v>
+        <v>0.02891565979632039</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03016067122789343</v>
+        <v>0.03016067142912413</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03553923560517087</v>
+        <v>0.03553923510912926</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03753987822068384</v>
+        <v>0.03753987828689129</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05108326498075406</v>
+        <v>0.05108326493400524</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0568236159138658</v>
+        <v>0.05682361618529306</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06949002971698502</v>
+        <v>0.06949002978014814</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0742230610008412</v>
+        <v>0.07422306146981501</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06981655430702062</v>
+        <v>0.06981655365132428</v>
       </c>
       <c r="M23" t="n">
-        <v>0.06110366308465814</v>
+        <v>0.06110366608455009</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0543175376797202</v>
+        <v>0.05431754035129773</v>
       </c>
       <c r="O23" t="n">
-        <v>0.04775130259932739</v>
+        <v>0.04775130664358932</v>
       </c>
       <c r="P23" t="n">
-        <v>0.04620565756869614</v>
+        <v>0.04620565824504538</v>
       </c>
     </row>
     <row r="24">
@@ -1621,49 +1621,49 @@
         <v>42338</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.01833062468987288</v>
+        <v>-0.01833062458883145</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.01221394852025479</v>
+        <v>-0.01221394771395144</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0017551426640322</v>
+        <v>-0.001755142787977026</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003903751451378684</v>
+        <v>0.003903751328101151</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01071220435310827</v>
+        <v>0.01071220450486445</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02060554241451979</v>
+        <v>0.02060554239148916</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02434313094408031</v>
+        <v>0.02434313080163393</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0237864581601553</v>
+        <v>0.02378645808031003</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02404139766054201</v>
+        <v>0.02404139791539904</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02404911216118587</v>
+        <v>0.0240491118956827</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02228780176794895</v>
+        <v>0.02228780068177671</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02179026580520498</v>
+        <v>0.02179026504888799</v>
       </c>
       <c r="N24" t="n">
-        <v>0.02387856124105379</v>
+        <v>0.02387856157210731</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04011288995113851</v>
+        <v>0.04011288912639913</v>
       </c>
       <c r="P24" t="n">
-        <v>0.05783442522136897</v>
+        <v>0.05783442505391628</v>
       </c>
     </row>
     <row r="25">
@@ -1671,49 +1671,49 @@
         <v>42369</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0116082354514418</v>
+        <v>0.01160823548762661</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01239456905780841</v>
+        <v>0.01239456773144289</v>
       </c>
       <c r="D25" t="n">
-        <v>0.008478444973957923</v>
+        <v>0.008478445007303409</v>
       </c>
       <c r="E25" t="n">
-        <v>0.004415981503714276</v>
+        <v>0.00441598146054047</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0002128147562287458</v>
+        <v>-0.0002128145252263949</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.003892734609675818</v>
+        <v>-0.003892734456475937</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.004919292055727796</v>
+        <v>-0.004919292009816466</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.007269415694900956</v>
+        <v>-0.007269415708656995</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.01049151904662151</v>
+        <v>-0.0104915191987672</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.01092712327855417</v>
+        <v>-0.01092712377994258</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.01287895736354898</v>
+        <v>-0.01287895722073709</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.01782385769197177</v>
+        <v>-0.01782386075160346</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.02533743962606905</v>
+        <v>-0.02533744161534721</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.02913046375493863</v>
+        <v>-0.02913046970419149</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.0571261725955699</v>
+        <v>-0.05712617282333516</v>
       </c>
     </row>
     <row r="26">
@@ -1721,49 +1721,49 @@
         <v>42398</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.01628692920863493</v>
+        <v>-0.01628692928976544</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.01501905314359143</v>
+        <v>-0.01501905311182268</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01766664008485786</v>
+        <v>-0.0176666400615256</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.01625119336798725</v>
+        <v>-0.01625119337956284</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.01651390106316421</v>
+        <v>-0.01651390118271186</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.01876652712718155</v>
+        <v>-0.01876652712432763</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.02288855245179266</v>
+        <v>-0.02288855231966379</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.02745424655197575</v>
+        <v>-0.02745424624354541</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.02839097563815146</v>
+        <v>-0.0283909758656402</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.04039203987688705</v>
+        <v>-0.0403920402964659</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.05221229021095712</v>
+        <v>-0.05221229000593463</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.06355395361802027</v>
+        <v>-0.06355395675552529</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.07280844594765984</v>
+        <v>-0.07280844802243605</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.08116375649081681</v>
+        <v>-0.08116376433330301</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.1338284259519296</v>
+        <v>-0.1338284267486096</v>
       </c>
     </row>
     <row r="27">
@@ -1771,49 +1771,49 @@
         <v>42429</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0004126906590175823</v>
+        <v>0.00041269016804524</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001237051120574665</v>
+        <v>0.00123704946525437</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.004879595763365642</v>
+        <v>-0.004879595660575345</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.009847152029967936</v>
+        <v>-0.009847152056939257</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.01232099570381825</v>
+        <v>-0.01232099604631323</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.0136399426810465</v>
+        <v>-0.01363994287199515</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.01169375130948271</v>
+        <v>-0.01169375136443226</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.006245208585042574</v>
+        <v>-0.006245208381527107</v>
       </c>
       <c r="J27" t="n">
-        <v>0.001422498238243962</v>
+        <v>0.001422498267927049</v>
       </c>
       <c r="K27" t="n">
-        <v>0.001301116507702392</v>
+        <v>0.001301116705319909</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0001067014998316668</v>
+        <v>-0.000106701461987234</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.003691527176576237</v>
+        <v>-0.003691525316909533</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.001157084312022529</v>
+        <v>-0.001157082964574814</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.005586409787074894</v>
+        <v>-0.005586407902124989</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.01289023294120653</v>
+        <v>-0.01289023302125516</v>
       </c>
     </row>
     <row r="28">
@@ -1821,49 +1821,49 @@
         <v>42460</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04666741587243679</v>
+        <v>0.04666741617661533</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04969135312071343</v>
+        <v>0.04969135277224938</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05559348231952612</v>
+        <v>0.05559348224009819</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06083913616049377</v>
+        <v>0.06083913627853105</v>
       </c>
       <c r="F28" t="n">
-        <v>0.068694231345187</v>
+        <v>0.06869423143736927</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06862687573828209</v>
+        <v>0.06862687572345097</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07050078428014228</v>
+        <v>0.07050078434852119</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06949778940648826</v>
+        <v>0.06949778950774854</v>
       </c>
       <c r="J28" t="n">
-        <v>0.06663346070078459</v>
+        <v>0.06663346062504638</v>
       </c>
       <c r="K28" t="n">
-        <v>0.07121714240578225</v>
+        <v>0.07121714312790738</v>
       </c>
       <c r="L28" t="n">
-        <v>0.06780453519679738</v>
+        <v>0.06780453499008549</v>
       </c>
       <c r="M28" t="n">
-        <v>0.06298194141285762</v>
+        <v>0.06298194676784893</v>
       </c>
       <c r="N28" t="n">
-        <v>0.05433262780085624</v>
+        <v>0.05433263089001807</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01293177728047345</v>
+        <v>0.01293178249945143</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.04418644832265326</v>
+        <v>-0.04418644754083546</v>
       </c>
     </row>
     <row r="29">
@@ -1871,49 +1871,49 @@
         <v>42489</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00162313821687837</v>
+        <v>0.001623138231510806</v>
       </c>
       <c r="C29" t="n">
-        <v>0.003873012901775577</v>
+        <v>0.003873013364686827</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003607133460344868</v>
+        <v>0.003607133500727823</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005461880639690496</v>
+        <v>0.005461880567786561</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00849565543343038</v>
+        <v>0.008495655766534859</v>
       </c>
       <c r="G29" t="n">
-        <v>0.007276425096968964</v>
+        <v>0.007276425301643404</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01501750308129503</v>
+        <v>0.01501750310089795</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01779579707215062</v>
+        <v>0.01779579755154551</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0244831909040075</v>
+        <v>0.02448319113471613</v>
       </c>
       <c r="K29" t="n">
-        <v>0.03349317496335464</v>
+        <v>0.03349317668541608</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03997949246716725</v>
+        <v>0.03997949164857503</v>
       </c>
       <c r="M29" t="n">
-        <v>0.05094734063365763</v>
+        <v>0.05094735258171317</v>
       </c>
       <c r="N29" t="n">
-        <v>0.05904597700798754</v>
+        <v>0.05904598460321538</v>
       </c>
       <c r="O29" t="n">
-        <v>0.02723940767027829</v>
+        <v>0.02723942456641795</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01865435557686109</v>
+        <v>0.01865435592748015</v>
       </c>
     </row>
     <row r="30">
@@ -1921,49 +1921,49 @@
         <v>42521</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.002089566383647147</v>
+        <v>-0.002089566260528434</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003424368834193706</v>
+        <v>0.003424367656195497</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0124255763727497</v>
+        <v>0.01242557633666506</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01810710184460088</v>
+        <v>0.01810710199378767</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02103822275736062</v>
+        <v>0.02103822280964428</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02962776846690196</v>
+        <v>0.02962776844478636</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02326077373416685</v>
+        <v>0.02326077390235176</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0141930505815314</v>
+        <v>0.01419305015015757</v>
       </c>
       <c r="J30" t="n">
-        <v>0.004110196130294876</v>
+        <v>0.004110195916061814</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.005049789094916576</v>
+        <v>-0.00504978968632514</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.01364930917488324</v>
+        <v>-0.01364930895287877</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.02564079701061125</v>
+        <v>-0.02564080017081944</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.03065328942658464</v>
+        <v>-0.03065329091969745</v>
       </c>
       <c r="O30" t="n">
-        <v>0.00323249687741875</v>
+        <v>0.003232494794757106</v>
       </c>
       <c r="P30" t="n">
-        <v>0.05588014468592632</v>
+        <v>0.05588014461685827</v>
       </c>
     </row>
     <row r="31">
@@ -1971,49 +1971,49 @@
         <v>42551</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.02932688253470879</v>
+        <v>-0.02932688258463686</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.02554430255603194</v>
+        <v>-0.02554430445418169</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.03471283359049523</v>
+        <v>-0.03471283341164659</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.02865810125060947</v>
+        <v>-0.02865810126655492</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.02404013157217598</v>
+        <v>-0.02404013188651223</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.01872853757589995</v>
+        <v>-0.0187285375901857</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.01557600520370075</v>
+        <v>-0.01557600501407679</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.02084155462072199</v>
+        <v>-0.02084155440891858</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.02341792809297229</v>
+        <v>-0.0234179276532257</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.04175893745921428</v>
+        <v>-0.04175893638617211</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.06639646751298431</v>
+        <v>-0.06639646960596061</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0886230310617275</v>
+        <v>-0.08862302616211232</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.1114419379455987</v>
+        <v>-0.1114419343891557</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.1530255329881432</v>
+        <v>-0.1530255258665753</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.1711022191744453</v>
+        <v>-0.1711022199603726</v>
       </c>
     </row>
     <row r="32">
@@ -2021,49 +2021,49 @@
         <v>42580</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02271544916996807</v>
+        <v>0.02271544902832379</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02578345229973717</v>
+        <v>0.0257834532881225</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03302252874212292</v>
+        <v>0.03302252871310858</v>
       </c>
       <c r="E32" t="n">
-        <v>0.03912370549679935</v>
+        <v>0.03912370557028511</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04755083845862391</v>
+        <v>0.04755083868678277</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05343023771246287</v>
+        <v>0.05343023798098722</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06956026745332254</v>
+        <v>0.06956026739680657</v>
       </c>
       <c r="I32" t="n">
-        <v>0.08018472730120432</v>
+        <v>0.08018472767328694</v>
       </c>
       <c r="J32" t="n">
-        <v>0.08852132608335322</v>
+        <v>0.08852132590731941</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1054194931718398</v>
+        <v>0.1054194935910657</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1131914800241584</v>
+        <v>0.1131914800535352</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1197131244661922</v>
+        <v>0.1197131268455599</v>
       </c>
       <c r="N32" t="n">
-        <v>0.1188749026062282</v>
+        <v>0.1188749045831601</v>
       </c>
       <c r="O32" t="n">
-        <v>0.1040175682901366</v>
+        <v>0.1040175691656115</v>
       </c>
       <c r="P32" t="n">
-        <v>0.06857316655699183</v>
+        <v>0.06857316715690551</v>
       </c>
     </row>
     <row r="33">
@@ -2071,49 +2071,49 @@
         <v>42613</v>
       </c>
       <c r="B33" t="n">
-        <v>0.005507713239174487</v>
+        <v>0.005507713653269125</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001510655679956382</v>
+        <v>0.001510657835702719</v>
       </c>
       <c r="D33" t="n">
-        <v>0.007827560492393457</v>
+        <v>0.007827560315927882</v>
       </c>
       <c r="E33" t="n">
-        <v>0.006308443207879641</v>
+        <v>0.006308443170757096</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002994573614044461</v>
+        <v>0.002994573743532308</v>
       </c>
       <c r="G33" t="n">
-        <v>0.001921773266722364</v>
+        <v>0.001921773331748641</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002205787044885593</v>
+        <v>0.002205786983406963</v>
       </c>
       <c r="I33" t="n">
-        <v>0.005128864421502458</v>
+        <v>0.005128864135025085</v>
       </c>
       <c r="J33" t="n">
-        <v>0.006412648467298181</v>
+        <v>0.006412648302633103</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01519015496078094</v>
+        <v>0.01519015393398868</v>
       </c>
       <c r="L33" t="n">
-        <v>0.027673200801067</v>
+        <v>0.02767320209101793</v>
       </c>
       <c r="M33" t="n">
-        <v>0.03577460012848285</v>
+        <v>0.03577459392388276</v>
       </c>
       <c r="N33" t="n">
-        <v>0.04236063549825879</v>
+        <v>0.04236063080607368</v>
       </c>
       <c r="O33" t="n">
-        <v>0.07035631206272534</v>
+        <v>0.0703563043887617</v>
       </c>
       <c r="P33" t="n">
-        <v>0.09718218374789717</v>
+        <v>0.09718218388042843</v>
       </c>
     </row>
     <row r="34">
@@ -2121,49 +2121,49 @@
         <v>42643</v>
       </c>
       <c r="B34" t="n">
-        <v>0.002607862799653424</v>
+        <v>0.002607863274867694</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0040385255577362</v>
+        <v>0.004038524560768938</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001589067552027245</v>
+        <v>0.001589067601563657</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00236833860549173</v>
+        <v>0.002368338653587684</v>
       </c>
       <c r="F34" t="n">
-        <v>0.006815140770278215</v>
+        <v>0.006815140348057483</v>
       </c>
       <c r="G34" t="n">
-        <v>0.009002090634385729</v>
+        <v>0.009002090850697194</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01758323196048732</v>
+        <v>0.01758323208605777</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01716357921791148</v>
+        <v>0.01716357921660804</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01702847200726347</v>
+        <v>0.01702847154348167</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01745231886537572</v>
+        <v>0.01745231927841285</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0121065705364316</v>
+        <v>0.01210657074242501</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0002662078110903889</v>
+        <v>-0.0002662028256367536</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.01879677855144</v>
+        <v>-0.01879677533550926</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.05157284327499796</v>
+        <v>-0.05157283591600521</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.07062133739234804</v>
+        <v>-0.07062133733669564</v>
       </c>
     </row>
     <row r="35">
@@ -2171,49 +2171,49 @@
         <v>42674</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.04171366589041501</v>
+        <v>-0.04171366570531912</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.03962088830142774</v>
+        <v>-0.03962088615263142</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.03425551524817241</v>
+        <v>-0.03425551515301078</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.03269115224820797</v>
+        <v>-0.0326911522816634</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.02847737981876062</v>
+        <v>-0.02847738010630114</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.02845946074455821</v>
+        <v>-0.02845946091210431</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.02338296655397204</v>
+        <v>-0.02338296656786489</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.01685321802861046</v>
+        <v>-0.01685321788001709</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.01007567024596052</v>
+        <v>-0.01007566990480276</v>
       </c>
       <c r="K35" t="n">
-        <v>0.002980528977647542</v>
+        <v>0.002980529860916549</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01747004173365114</v>
+        <v>0.01747004065729806</v>
       </c>
       <c r="M35" t="n">
-        <v>0.03748002330926253</v>
+        <v>0.03748002750898728</v>
       </c>
       <c r="N35" t="n">
-        <v>0.05586007249334813</v>
+        <v>0.05586007659833942</v>
       </c>
       <c r="O35" t="n">
-        <v>0.07300044866000942</v>
+        <v>0.07300045501531804</v>
       </c>
       <c r="P35" t="n">
-        <v>0.101130833084619</v>
+        <v>0.1011308327196117</v>
       </c>
     </row>
     <row r="36">
@@ -2221,49 +2221,49 @@
         <v>42704</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.03235297397840742</v>
+        <v>-0.03235297489409079</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.03120076476059018</v>
+        <v>-0.03120076406770655</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0297067726373937</v>
+        <v>-0.0297067723661712</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.02720016104446184</v>
+        <v>-0.0272001610934497</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.02265829971035559</v>
+        <v>-0.0226582999530387</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.01690519597415508</v>
+        <v>-0.01690519593815588</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.006497401855995094</v>
+        <v>-0.006497401741574602</v>
       </c>
       <c r="I36" t="n">
-        <v>0.008390698179447785</v>
+        <v>0.008390698540653573</v>
       </c>
       <c r="J36" t="n">
-        <v>0.01525191462237333</v>
+        <v>0.01525191486585282</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02783391532186983</v>
+        <v>0.02783391602344697</v>
       </c>
       <c r="L36" t="n">
-        <v>0.04309032266363935</v>
+        <v>0.04309032269389178</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06122078175514471</v>
+        <v>0.06122078379099783</v>
       </c>
       <c r="N36" t="n">
-        <v>0.07089082870100165</v>
+        <v>0.07089082954136203</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0527707122598346</v>
+        <v>0.05277071665841909</v>
       </c>
       <c r="P36" t="n">
-        <v>0.05307117321912121</v>
+        <v>0.05307117314547977</v>
       </c>
     </row>
     <row r="37">
@@ -2271,49 +2271,49 @@
         <v>42734</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02144053701473433</v>
+        <v>0.02144053701105944</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02274824814461532</v>
+        <v>0.02274824889879977</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02554781202665177</v>
+        <v>0.02554781208550507</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02640432671852953</v>
+        <v>0.02640432666420958</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02653116569804536</v>
+        <v>0.02653116564917591</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02757674952318527</v>
+        <v>0.02757674957087099</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02576192372712533</v>
+        <v>0.02576192355364372</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02841558011975984</v>
+        <v>0.02841557994015877</v>
       </c>
       <c r="J37" t="n">
-        <v>0.03599356886113871</v>
+        <v>0.03599356898331679</v>
       </c>
       <c r="K37" t="n">
-        <v>0.03795806903424133</v>
+        <v>0.0379580687543097</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0479156092397364</v>
+        <v>0.04791560912347129</v>
       </c>
       <c r="M37" t="n">
-        <v>0.06244919154603947</v>
+        <v>0.06244918969016641</v>
       </c>
       <c r="N37" t="n">
-        <v>0.08051418940193154</v>
+        <v>0.0805141881852655</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1252330290923468</v>
+        <v>0.1252330301891605</v>
       </c>
       <c r="P37" t="n">
-        <v>0.2072709316806138</v>
+        <v>0.2072709321778132</v>
       </c>
     </row>
     <row r="38">
@@ -2321,49 +2321,49 @@
         <v>42766</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.006909529358280129</v>
+        <v>-0.006909529596490705</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.330046280693218e-05</v>
+        <v>-6.330212445686114e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001291860804716478</v>
+        <v>0.001291860841813426</v>
       </c>
       <c r="E38" t="n">
-        <v>0.008796978111608934</v>
+        <v>0.00879697810152183</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01834475212931693</v>
+        <v>0.01834475156886428</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02602784446984613</v>
+        <v>0.02602784420991363</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04250114219678393</v>
+        <v>0.04250114203763691</v>
       </c>
       <c r="I38" t="n">
-        <v>0.05854205690186154</v>
+        <v>0.05854205678543599</v>
       </c>
       <c r="J38" t="n">
-        <v>0.07606608103566848</v>
+        <v>0.07606608121498003</v>
       </c>
       <c r="K38" t="n">
-        <v>0.09434631031444798</v>
+        <v>0.09434631018289165</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1138604848429962</v>
+        <v>0.1138604843968617</v>
       </c>
       <c r="M38" t="n">
-        <v>0.135706683376825</v>
+        <v>0.135706681566976</v>
       </c>
       <c r="N38" t="n">
-        <v>0.158533845407013</v>
+        <v>0.1585338451169332</v>
       </c>
       <c r="O38" t="n">
-        <v>0.1912163642189829</v>
+        <v>0.1912163618252553</v>
       </c>
       <c r="P38" t="n">
-        <v>0.2208020613844515</v>
+        <v>0.2208020616626999</v>
       </c>
     </row>
     <row r="39">
@@ -2371,49 +2371,49 @@
         <v>42794</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.003222718908008359</v>
+        <v>-0.003222719420107261</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0009339119204187021</v>
+        <v>-0.0009339124226130854</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003784799468050151</v>
+        <v>0.003784799571065855</v>
       </c>
       <c r="E39" t="n">
-        <v>0.009959250282372564</v>
+        <v>0.009959250274743559</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01447592947529165</v>
+        <v>0.01447592964278061</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01717533876240171</v>
+        <v>0.01717533885761331</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01751931486317884</v>
+        <v>0.01751931487719255</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02269522536843264</v>
+        <v>0.02269522544616038</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0288967821282286</v>
+        <v>0.02889678208853245</v>
       </c>
       <c r="K39" t="n">
-        <v>0.02920314799182844</v>
+        <v>0.02920314782783924</v>
       </c>
       <c r="L39" t="n">
-        <v>0.03105455996261718</v>
+        <v>0.03105456019831902</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0359149698295165</v>
+        <v>0.03591496971544719</v>
       </c>
       <c r="N39" t="n">
-        <v>0.04213062938304969</v>
+        <v>0.04213062944737908</v>
       </c>
       <c r="O39" t="n">
-        <v>0.04783491374117592</v>
+        <v>0.04783491448190928</v>
       </c>
       <c r="P39" t="n">
-        <v>0.06454787589964289</v>
+        <v>0.06454787605606976</v>
       </c>
     </row>
     <row r="40">
@@ -2421,49 +2421,49 @@
         <v>42825</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02880712683081227</v>
+        <v>0.0288071272498368</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0263984741768801</v>
+        <v>0.02639847522871889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0252530161706924</v>
+        <v>0.02525301618937222</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02379711403544415</v>
+        <v>0.02379711401933952</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02234752396888534</v>
+        <v>0.02234752387859296</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02281993659223833</v>
+        <v>0.02281993657330264</v>
       </c>
       <c r="H40" t="n">
-        <v>0.02562652607325948</v>
+        <v>0.02562652606143535</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03191697731042059</v>
+        <v>0.03191697739654831</v>
       </c>
       <c r="J40" t="n">
-        <v>0.04293780970316045</v>
+        <v>0.04293780954255452</v>
       </c>
       <c r="K40" t="n">
-        <v>0.04996159893629254</v>
+        <v>0.04996159871281691</v>
       </c>
       <c r="L40" t="n">
-        <v>0.05906725458060928</v>
+        <v>0.05906725503192355</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06807315667106011</v>
+        <v>0.06807315429106475</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0770272607800965</v>
+        <v>0.07702725894610069</v>
       </c>
       <c r="O40" t="n">
-        <v>0.09582533347496877</v>
+        <v>0.09582532940604499</v>
       </c>
       <c r="P40" t="n">
-        <v>0.1020704414289897</v>
+        <v>0.1020704418036743</v>
       </c>
     </row>
     <row r="41">
@@ -2471,49 +2471,49 @@
         <v>42853</v>
       </c>
       <c r="B41" t="n">
-        <v>0.03322165589016591</v>
+        <v>0.0332216558352967</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03300533840363669</v>
+        <v>0.03300533909892002</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03836802966089516</v>
+        <v>0.03836802957554432</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03815544618260869</v>
+        <v>0.03815544615969933</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03778101675396785</v>
+        <v>0.03778101687222182</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04040576562902344</v>
+        <v>0.04040576565200664</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0433457520422974</v>
+        <v>0.04334575214353793</v>
       </c>
       <c r="I41" t="n">
-        <v>0.04445725209928421</v>
+        <v>0.04445725195301421</v>
       </c>
       <c r="J41" t="n">
-        <v>0.04053641251332524</v>
+        <v>0.04053641266633196</v>
       </c>
       <c r="K41" t="n">
-        <v>0.05301745927272568</v>
+        <v>0.05301745921811156</v>
       </c>
       <c r="L41" t="n">
-        <v>0.06204931126157529</v>
+        <v>0.06204931102806056</v>
       </c>
       <c r="M41" t="n">
-        <v>0.06710252801325628</v>
+        <v>0.06710252713653628</v>
       </c>
       <c r="N41" t="n">
-        <v>0.07004992916969481</v>
+        <v>0.07004992862580212</v>
       </c>
       <c r="O41" t="n">
-        <v>0.06824266723913533</v>
+        <v>0.06824266566378179</v>
       </c>
       <c r="P41" t="n">
-        <v>0.06170420107129117</v>
+        <v>0.06170420162809588</v>
       </c>
     </row>
     <row r="42">
@@ -2521,49 +2521,49 @@
         <v>42886</v>
       </c>
       <c r="B42" t="n">
-        <v>0.05966861765851684</v>
+        <v>0.05966861798345638</v>
       </c>
       <c r="C42" t="n">
-        <v>0.05761917620221049</v>
+        <v>0.05761917517191233</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06038734852200404</v>
+        <v>0.06038734849858645</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06179118880242213</v>
+        <v>0.06179118881288381</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06293967415485056</v>
+        <v>0.06293967392812658</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06482153123096551</v>
+        <v>0.06482153122029483</v>
       </c>
       <c r="H42" t="n">
-        <v>0.05932766701595969</v>
+        <v>0.05932766713018929</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04951091483456626</v>
+        <v>0.04951091457005284</v>
       </c>
       <c r="J42" t="n">
-        <v>0.03847765114711121</v>
+        <v>0.03847765126594165</v>
       </c>
       <c r="K42" t="n">
-        <v>0.03289895196339496</v>
+        <v>0.03289895177703056</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02258365372898256</v>
+        <v>0.02258365266386417</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01099174322760775</v>
+        <v>0.01099173992374887</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.003737088510401138</v>
+        <v>-0.003737090411199531</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.0189611877576246</v>
+        <v>-0.01896119332137104</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.04461568978566296</v>
+        <v>-0.04461568931375363</v>
       </c>
     </row>
     <row r="43">
@@ -2571,49 +2571,49 @@
         <v>42916</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.0125576063533412</v>
+        <v>-0.01255760630668121</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.006939686741372984</v>
+        <v>-0.006939687213499293</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.005148503371782253</v>
+        <v>-0.005148503297807501</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0004379902008984755</v>
+        <v>0.0004379902836297057</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004092163092879774</v>
+        <v>0.004092163214766906</v>
       </c>
       <c r="G43" t="n">
-        <v>0.003855691563506404</v>
+        <v>0.003855691619184912</v>
       </c>
       <c r="H43" t="n">
-        <v>0.00805805178591038</v>
+        <v>0.00805805192545667</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02039777061078053</v>
+        <v>0.02039777057687118</v>
       </c>
       <c r="J43" t="n">
-        <v>0.03233398051133408</v>
+        <v>0.03233398077605535</v>
       </c>
       <c r="K43" t="n">
-        <v>0.04868047842070378</v>
+        <v>0.04868047878508977</v>
       </c>
       <c r="L43" t="n">
-        <v>0.07398371118500403</v>
+        <v>0.07398371043292988</v>
       </c>
       <c r="M43" t="n">
-        <v>0.106725017140221</v>
+        <v>0.1067250191174008</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1480930041258605</v>
+        <v>0.1480930067577811</v>
       </c>
       <c r="O43" t="n">
-        <v>0.2208001620554631</v>
+        <v>0.2208001667691411</v>
       </c>
       <c r="P43" t="n">
-        <v>0.3140037795463185</v>
+        <v>0.3140037795277632</v>
       </c>
     </row>
     <row r="44">
@@ -2621,49 +2621,49 @@
         <v>42947</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01365073892951744</v>
+        <v>0.01365073957007264</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01583391810870131</v>
+        <v>0.01583391828153975</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01668069847390898</v>
+        <v>0.01668069839334065</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02036453906018075</v>
+        <v>0.02036453906633276</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02604493008648712</v>
+        <v>0.02604493039044061</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02651977357304555</v>
+        <v>0.0265197738119431</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03109340376519085</v>
+        <v>0.03109340365092736</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04305807436321953</v>
+        <v>0.04305807389221619</v>
       </c>
       <c r="J44" t="n">
-        <v>0.06409277099626368</v>
+        <v>0.0640927711461389</v>
       </c>
       <c r="K44" t="n">
-        <v>0.09141051445276971</v>
+        <v>0.0914105145101636</v>
       </c>
       <c r="L44" t="n">
-        <v>0.1256324491153624</v>
+        <v>0.1256324488089892</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1643120260850854</v>
+        <v>0.1643120278327309</v>
       </c>
       <c r="N44" t="n">
-        <v>0.207159384223311</v>
+        <v>0.2071593866274186</v>
       </c>
       <c r="O44" t="n">
-        <v>0.263850846883201</v>
+        <v>0.2638508522825266</v>
       </c>
       <c r="P44" t="n">
-        <v>0.3549383211738589</v>
+        <v>0.3549383215036001</v>
       </c>
     </row>
     <row r="45">
@@ -2671,49 +2671,49 @@
         <v>42978</v>
       </c>
       <c r="B45" t="n">
-        <v>0.004534423088762256</v>
+        <v>0.004534423699151986</v>
       </c>
       <c r="C45" t="n">
-        <v>0.009131937210804304</v>
+        <v>0.009131937497295871</v>
       </c>
       <c r="D45" t="n">
-        <v>0.00765993859313238</v>
+        <v>0.007659938618170653</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00973579659751201</v>
+        <v>0.009735796599806085</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01452364342980146</v>
+        <v>0.01452364345512742</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01542197855054996</v>
+        <v>0.01542197863773823</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02491467448930228</v>
+        <v>0.02491467469424924</v>
       </c>
       <c r="I45" t="n">
-        <v>0.02484819622196376</v>
+        <v>0.02484819636296702</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02246078937422967</v>
+        <v>0.02246078903627191</v>
       </c>
       <c r="K45" t="n">
-        <v>0.02998912164206833</v>
+        <v>0.02998912267042776</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03502977520089325</v>
+        <v>0.03502977617055435</v>
       </c>
       <c r="M45" t="n">
-        <v>0.04307437580914313</v>
+        <v>0.0430743859194536</v>
       </c>
       <c r="N45" t="n">
-        <v>0.04798720887407756</v>
+        <v>0.04798721445360721</v>
       </c>
       <c r="O45" t="n">
-        <v>0.02401900590981967</v>
+        <v>0.02401901827406784</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0005791486736927863</v>
+        <v>0.0005791486401884405</v>
       </c>
     </row>
     <row r="46">
@@ -2721,49 +2721,49 @@
         <v>43007</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01360212984991843</v>
+        <v>0.01360212969766077</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0173259997208853</v>
+        <v>0.01732600097631531</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0225183587773495</v>
+        <v>0.02251835881034526</v>
       </c>
       <c r="E46" t="n">
-        <v>0.025521535580883</v>
+        <v>0.02552153564633652</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02740785654914307</v>
+        <v>0.02740785660873537</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03082081663636318</v>
+        <v>0.03082081665263529</v>
       </c>
       <c r="H46" t="n">
-        <v>0.03550220312316849</v>
+        <v>0.03550220317606011</v>
       </c>
       <c r="I46" t="n">
-        <v>0.04881121171634987</v>
+        <v>0.04881121155445887</v>
       </c>
       <c r="J46" t="n">
-        <v>0.05925977328850657</v>
+        <v>0.05925977364782754</v>
       </c>
       <c r="K46" t="n">
-        <v>0.07789100786096767</v>
+        <v>0.0778910075015983</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1036725061572367</v>
+        <v>0.1036725055783698</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1338755414659119</v>
+        <v>0.1338755390175537</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1689549916881452</v>
+        <v>0.1689549907837042</v>
       </c>
       <c r="O46" t="n">
-        <v>0.218787093921149</v>
+        <v>0.2187870915008373</v>
       </c>
       <c r="P46" t="n">
-        <v>0.2743516498999636</v>
+        <v>0.2743516502807292</v>
       </c>
     </row>
     <row r="47">
@@ -2771,49 +2771,49 @@
         <v>43039</v>
       </c>
       <c r="B47" t="n">
-        <v>0.008930295977666555</v>
+        <v>0.008930296448579192</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01014662743472782</v>
+        <v>0.01014662926338448</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0204091936226753</v>
+        <v>0.02040919352716862</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02360914922625566</v>
+        <v>0.023609149299201</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02755366030616664</v>
+        <v>0.02755366029135277</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03164503901684017</v>
+        <v>0.0316450389085841</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03156730366821295</v>
+        <v>0.03156730376114071</v>
       </c>
       <c r="I47" t="n">
-        <v>0.03753234540818043</v>
+        <v>0.03753234523443265</v>
       </c>
       <c r="J47" t="n">
-        <v>0.04378955369151661</v>
+        <v>0.04378955381446403</v>
       </c>
       <c r="K47" t="n">
-        <v>0.04498288173883963</v>
+        <v>0.04498288134353632</v>
       </c>
       <c r="L47" t="n">
-        <v>0.05131179121660843</v>
+        <v>0.05131179106303885</v>
       </c>
       <c r="M47" t="n">
-        <v>0.06108830509642452</v>
+        <v>0.06108830264521267</v>
       </c>
       <c r="N47" t="n">
-        <v>0.07631551690878942</v>
+        <v>0.07631551498795894</v>
       </c>
       <c r="O47" t="n">
-        <v>0.1056563002756002</v>
+        <v>0.1056562976326491</v>
       </c>
       <c r="P47" t="n">
-        <v>0.1410972473389759</v>
+        <v>0.1410972473831081</v>
       </c>
     </row>
     <row r="48">
@@ -2821,49 +2821,49 @@
         <v>43069</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01032349978367893</v>
+        <v>0.01032349957170728</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01377759058801089</v>
+        <v>0.01377759058298342</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01247150185552769</v>
+        <v>0.01247150190353375</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01929217598631716</v>
+        <v>0.0192921759492398</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02336129739298963</v>
+        <v>0.02336129774487599</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02411805459627937</v>
+        <v>0.02411805482632362</v>
       </c>
       <c r="H48" t="n">
-        <v>0.02057855668552881</v>
+        <v>0.02057855656622316</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01113141102111526</v>
+        <v>0.01113141128234065</v>
       </c>
       <c r="J48" t="n">
-        <v>0.007233817283072022</v>
+        <v>0.007233816942858375</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0003242037449849682</v>
+        <v>-0.0003242037795163196</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.007893449932008856</v>
+        <v>-0.007893449755620684</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.01760186210822354</v>
+        <v>-0.01760186259953679</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.02713516509528471</v>
+        <v>-0.02713516599258828</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.056709847040065</v>
+        <v>-0.05670985081871827</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.1207514668191177</v>
+        <v>-0.1207514667746553</v>
       </c>
     </row>
     <row r="49">
@@ -2871,49 +2871,49 @@
         <v>43098</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01539571033663279</v>
+        <v>0.0153957104861663</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0159763206414597</v>
+        <v>0.01597632091290519</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01856065564773563</v>
+        <v>0.01856065568273881</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01709627548242637</v>
+        <v>0.01709627556266472</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01519364933210943</v>
+        <v>0.01519364947402573</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0116923116250621</v>
+        <v>0.01169231177824051</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01492225417691621</v>
+        <v>0.01492225424028665</v>
       </c>
       <c r="I49" t="n">
-        <v>0.02856570960695981</v>
+        <v>0.02856570943497742</v>
       </c>
       <c r="J49" t="n">
-        <v>0.05120867834126056</v>
+        <v>0.05120867849243309</v>
       </c>
       <c r="K49" t="n">
-        <v>0.07342314473703555</v>
+        <v>0.07342314506449442</v>
       </c>
       <c r="L49" t="n">
-        <v>0.1053696869512225</v>
+        <v>0.1053696866780158</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1419299055651884</v>
+        <v>0.1419299085663844</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1856271373828996</v>
+        <v>0.1856271401761303</v>
       </c>
       <c r="O49" t="n">
-        <v>0.251998291415982</v>
+        <v>0.2519982992850547</v>
       </c>
       <c r="P49" t="n">
-        <v>0.3598307223942514</v>
+        <v>0.3598307226406417</v>
       </c>
     </row>
     <row r="50">
@@ -2921,49 +2921,49 @@
         <v>43131</v>
       </c>
       <c r="B50" t="n">
-        <v>0.05120907910870157</v>
+        <v>0.05120907903961944</v>
       </c>
       <c r="C50" t="n">
-        <v>0.05296289958593418</v>
+        <v>0.05296290136037411</v>
       </c>
       <c r="D50" t="n">
-        <v>0.05406536535578067</v>
+        <v>0.05406536542898957</v>
       </c>
       <c r="E50" t="n">
-        <v>0.05330152463712667</v>
+        <v>0.05330152469360713</v>
       </c>
       <c r="F50" t="n">
-        <v>0.05710732856020361</v>
+        <v>0.05710732871619516</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05450609835022299</v>
+        <v>0.05450609850396998</v>
       </c>
       <c r="H50" t="n">
-        <v>0.05873056556790732</v>
+        <v>0.05873056544203331</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05887989276430064</v>
+        <v>0.05887989319585085</v>
       </c>
       <c r="J50" t="n">
-        <v>0.05368944579591859</v>
+        <v>0.05368944568455745</v>
       </c>
       <c r="K50" t="n">
-        <v>0.05430244726182935</v>
+        <v>0.05430244761704563</v>
       </c>
       <c r="L50" t="n">
-        <v>0.04793763388520983</v>
+        <v>0.04793763367903138</v>
       </c>
       <c r="M50" t="n">
-        <v>0.04108742474401299</v>
+        <v>0.04108742646930577</v>
       </c>
       <c r="N50" t="n">
-        <v>0.02588231455507726</v>
+        <v>0.02588231526687272</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.007978106900300597</v>
+        <v>-0.007978107210735698</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.06375559444882144</v>
+        <v>-0.0637555940219881</v>
       </c>
     </row>
     <row r="51">
@@ -2971,49 +2971,49 @@
         <v>43159</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.03815932462573314</v>
+        <v>-0.03815932516448759</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.03222808074599638</v>
+        <v>-0.03222807987493006</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.02792983114542663</v>
+        <v>-0.02792983120510216</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.02594128589887894</v>
+        <v>-0.02594128596319349</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.02305004719725108</v>
+        <v>-0.02305004726790015</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.02296830540446132</v>
+        <v>-0.02296830569379472</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.0203026796487037</v>
+        <v>-0.02030267977634876</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.01796254443728923</v>
+        <v>-0.01796254440889278</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.01555753240010921</v>
+        <v>-0.0155575321122081</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.01949574957466622</v>
+        <v>-0.0194957489931595</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.01984759999940387</v>
+        <v>-0.01984760118231431</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.01569230354499473</v>
+        <v>-0.0156923004807177</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.009420832681377223</v>
+        <v>-0.009420830588310879</v>
       </c>
       <c r="O51" t="n">
-        <v>-0.0100420867387153</v>
+        <v>-0.01004208179158132</v>
       </c>
       <c r="P51" t="n">
-        <v>0.003010925978642262</v>
+        <v>0.003010925392565566</v>
       </c>
     </row>
     <row r="52">
@@ -3021,49 +3021,49 @@
         <v>43189</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.01828507852347972</v>
+        <v>-0.01828507857828254</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.01343456879625908</v>
+        <v>-0.01343457153191</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01496469989864389</v>
+        <v>-0.01496469977493859</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.008597162539841354</v>
+        <v>-0.008597162461839131</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.004708484757337135</v>
+        <v>-0.004708484442815841</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.001720757988750227</v>
+        <v>-0.001720757928601331</v>
       </c>
       <c r="H52" t="n">
-        <v>0.003798699283963407</v>
+        <v>0.003798699408953487</v>
       </c>
       <c r="I52" t="n">
-        <v>0.005331589838438029</v>
+        <v>0.005331589531980314</v>
       </c>
       <c r="J52" t="n">
-        <v>0.01288577481884103</v>
+        <v>0.01288577467038538</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0116078905901008</v>
+        <v>0.01160789083368819</v>
       </c>
       <c r="L52" t="n">
-        <v>0.01189190424423951</v>
+        <v>0.01189190414466221</v>
       </c>
       <c r="M52" t="n">
-        <v>0.01234407818020862</v>
+        <v>0.01234407910702044</v>
       </c>
       <c r="N52" t="n">
-        <v>0.01715682780794373</v>
+        <v>0.01715682838175787</v>
       </c>
       <c r="O52" t="n">
-        <v>0.008228869982383487</v>
+        <v>0.008228869969265848</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.01810086147747082</v>
+        <v>-0.01810086158105734</v>
       </c>
     </row>
     <row r="53">
@@ -3071,49 +3071,49 @@
         <v>43220</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.002527268973769358</v>
+        <v>-0.002527268891042396</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.000138058153132968</v>
+        <v>-0.0001380569630361377</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01122491926106148</v>
+        <v>0.01122491915702845</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01638705926239087</v>
+        <v>0.01638705937322783</v>
       </c>
       <c r="F53" t="n">
-        <v>0.02089887737516831</v>
+        <v>0.02089887804797207</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02354280729034802</v>
+        <v>0.02354280745942902</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01709668559081198</v>
+        <v>0.01709668548330555</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01296651004473888</v>
+        <v>0.01296650989163664</v>
       </c>
       <c r="J53" t="n">
-        <v>0.01220463995757394</v>
+        <v>0.01220463977811822</v>
       </c>
       <c r="K53" t="n">
-        <v>0.01250720952563149</v>
+        <v>0.01250720961122295</v>
       </c>
       <c r="L53" t="n">
-        <v>0.01026059673578677</v>
+        <v>0.01026059713733284</v>
       </c>
       <c r="M53" t="n">
-        <v>0.005567559452793719</v>
+        <v>0.005567560751291883</v>
       </c>
       <c r="N53" t="n">
-        <v>0.001226672360010186</v>
+        <v>0.001226673318977772</v>
       </c>
       <c r="O53" t="n">
-        <v>0.00602409971363611</v>
+        <v>0.006024103460382841</v>
       </c>
       <c r="P53" t="n">
-        <v>0.03723383279766031</v>
+        <v>0.03723383304593453</v>
       </c>
     </row>
     <row r="54">
@@ -3121,49 +3121,49 @@
         <v>43251</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.01833018433082787</v>
+        <v>-0.01833018478135898</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.009178759074391326</v>
+        <v>-0.009178759534710437</v>
       </c>
       <c r="D54" t="n">
-        <v>3.038426966300856e-05</v>
+        <v>3.038432957171155e-05</v>
       </c>
       <c r="E54" t="n">
-        <v>0.007989293744523358</v>
+        <v>0.007989293610033574</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01413126129690683</v>
+        <v>0.01413126130738356</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0298457149157687</v>
+        <v>0.02984571505778894</v>
       </c>
       <c r="H54" t="n">
-        <v>0.04262382657550276</v>
+        <v>0.04262382667190966</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0533897775150709</v>
+        <v>0.05338977782815682</v>
       </c>
       <c r="J54" t="n">
-        <v>0.05965495184422085</v>
+        <v>0.05965495203533706</v>
       </c>
       <c r="K54" t="n">
-        <v>0.06629974334190851</v>
+        <v>0.06629974370505805</v>
       </c>
       <c r="L54" t="n">
-        <v>0.07083271302512961</v>
+        <v>0.07083271210053504</v>
       </c>
       <c r="M54" t="n">
-        <v>0.07726541282887872</v>
+        <v>0.07726541372338074</v>
       </c>
       <c r="N54" t="n">
-        <v>0.08338868883150517</v>
+        <v>0.08338869047832805</v>
       </c>
       <c r="O54" t="n">
-        <v>0.1001233683085899</v>
+        <v>0.1001233722189267</v>
       </c>
       <c r="P54" t="n">
-        <v>0.1505840310820579</v>
+        <v>0.1505840309486063</v>
       </c>
     </row>
     <row r="55">
@@ -3171,49 +3171,49 @@
         <v>43280</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01084090016740999</v>
+        <v>0.010840900392439</v>
       </c>
       <c r="C55" t="n">
-        <v>0.008236262978307166</v>
+        <v>0.008236265239675942</v>
       </c>
       <c r="D55" t="n">
-        <v>0.009758168355271133</v>
+        <v>0.009758168346121721</v>
       </c>
       <c r="E55" t="n">
-        <v>0.005412258123358373</v>
+        <v>0.005412258146746162</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002328088297814393</v>
+        <v>0.002328088595646617</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.003080641865949463</v>
+        <v>-0.00308064186635842</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.005377954878288072</v>
+        <v>-0.005377954918244724</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.008007908955410365</v>
+        <v>-0.008007909163533344</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.005894009982428057</v>
+        <v>-0.005894009798367746</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.009220727518941589</v>
+        <v>-0.009220727418329893</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.01339109480177334</v>
+        <v>-0.01339109599371617</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.02032826170520528</v>
+        <v>-0.0203282600300784</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.02402400894792997</v>
+        <v>-0.02402400697402095</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.007250901792075715</v>
+        <v>-0.007250897346808817</v>
       </c>
       <c r="P55" t="n">
-        <v>0.03690701380554934</v>
+        <v>0.03690701384579739</v>
       </c>
     </row>
     <row r="56">
@@ -3221,49 +3221,49 @@
         <v>43312</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01959301588007868</v>
+        <v>0.0195930153124956</v>
       </c>
       <c r="C56" t="n">
-        <v>0.02204898653733053</v>
+        <v>0.02204898630516944</v>
       </c>
       <c r="D56" t="n">
-        <v>0.02347104348621716</v>
+        <v>0.02347104357061518</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0294129442077856</v>
+        <v>0.02941294422707239</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03458723747892546</v>
+        <v>0.03458723715669809</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0400773687179961</v>
+        <v>0.04007736844873656</v>
       </c>
       <c r="H56" t="n">
-        <v>0.04527556335291416</v>
+        <v>0.04527556352999951</v>
       </c>
       <c r="I56" t="n">
-        <v>0.05012563596888082</v>
+        <v>0.05012563588685515</v>
       </c>
       <c r="J56" t="n">
-        <v>0.05427896379718054</v>
+        <v>0.05427896354100795</v>
       </c>
       <c r="K56" t="n">
-        <v>0.05888671956651757</v>
+        <v>0.05888671950933709</v>
       </c>
       <c r="L56" t="n">
-        <v>0.05686376353133096</v>
+        <v>0.05686376377347928</v>
       </c>
       <c r="M56" t="n">
-        <v>0.04690373375695972</v>
+        <v>0.04690373427361565</v>
       </c>
       <c r="N56" t="n">
-        <v>0.03621843486954291</v>
+        <v>0.03621843477767926</v>
       </c>
       <c r="O56" t="n">
-        <v>0.02032993209586081</v>
+        <v>0.02032993157216758</v>
       </c>
       <c r="P56" t="n">
-        <v>-0.008093747253358485</v>
+        <v>-0.008093747021056006</v>
       </c>
     </row>
     <row r="57">
@@ -3271,49 +3271,49 @@
         <v>43343</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.003912349637528643</v>
+        <v>-0.003912349809676254</v>
       </c>
       <c r="C57" t="n">
-        <v>0.001947462451002641</v>
+        <v>0.001947462749052489</v>
       </c>
       <c r="D57" t="n">
-        <v>0.006502559012591128</v>
+        <v>0.006502558922390477</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01277864304949606</v>
+        <v>0.0127786431731452</v>
       </c>
       <c r="F57" t="n">
-        <v>0.01831853505496289</v>
+        <v>0.01831853490814672</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02086127901904592</v>
+        <v>0.02086127884324232</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02317515475737281</v>
+        <v>0.02317515473555782</v>
       </c>
       <c r="I57" t="n">
-        <v>0.02584922987981405</v>
+        <v>0.02584922967595147</v>
       </c>
       <c r="J57" t="n">
-        <v>0.02803743036981271</v>
+        <v>0.02803743018997526</v>
       </c>
       <c r="K57" t="n">
-        <v>0.02560944169204413</v>
+        <v>0.02560944155575117</v>
       </c>
       <c r="L57" t="n">
-        <v>0.02701117119256461</v>
+        <v>0.02701117151366356</v>
       </c>
       <c r="M57" t="n">
-        <v>0.03274314837920209</v>
+        <v>0.03274314863148025</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0453264553117205</v>
+        <v>0.04532645643925304</v>
       </c>
       <c r="O57" t="n">
-        <v>0.09698177194826818</v>
+        <v>0.09698177472035652</v>
       </c>
       <c r="P57" t="n">
-        <v>0.1777736059451651</v>
+        <v>0.1777736057980412</v>
       </c>
     </row>
     <row r="58">
@@ -3321,49 +3321,49 @@
         <v>43371</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.01308100017882638</v>
+        <v>-0.01308100023350495</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.01552358152959497</v>
+        <v>-0.01552358277800642</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01446567977685609</v>
+        <v>-0.01446567997663934</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.01286144144399951</v>
+        <v>-0.01286144140027016</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.01150856573665295</v>
+        <v>-0.01150856580730213</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01383107013592446</v>
+        <v>-0.01383107025412494</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.01438162425496661</v>
+        <v>-0.01438162421146987</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.013504844510278</v>
+        <v>-0.01350484464176633</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.01253029435003581</v>
+        <v>-0.01253029417145281</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.002529804669182092</v>
+        <v>-0.002529804151954093</v>
       </c>
       <c r="L58" t="n">
-        <v>0.007067240917843769</v>
+        <v>0.007067240534020042</v>
       </c>
       <c r="M58" t="n">
-        <v>0.01750583909124799</v>
+        <v>0.01750584238819805</v>
       </c>
       <c r="N58" t="n">
-        <v>0.03123385616562951</v>
+        <v>0.03123385939634839</v>
       </c>
       <c r="O58" t="n">
-        <v>0.04668504760345324</v>
+        <v>0.04668505322045716</v>
       </c>
       <c r="P58" t="n">
-        <v>0.07617212970507389</v>
+        <v>0.07617212971242367</v>
       </c>
     </row>
     <row r="59">
@@ -3371,49 +3371,49 @@
         <v>43404</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.02160233900756457</v>
+        <v>-0.02160233869354616</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.02286760390499086</v>
+        <v>-0.02286760480221774</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02646843194486125</v>
+        <v>-0.0264684320085077</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.03156975200745912</v>
+        <v>-0.03156975195859641</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.03672930657553163</v>
+        <v>-0.03672930648855078</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.04263332878763711</v>
+        <v>-0.04263332890549415</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.05558518429001226</v>
+        <v>-0.05558518438271287</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.07410855958928968</v>
+        <v>-0.07410855951082315</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.09337943749856752</v>
+        <v>-0.09337943734990668</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.1134693951945589</v>
+        <v>-0.113469394947035</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.1331583763709355</v>
+        <v>-0.1331583771663581</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.1528158331294239</v>
+        <v>-0.1528158315070101</v>
       </c>
       <c r="N59" t="n">
-        <v>-0.1703160209761316</v>
+        <v>-0.1703160198441603</v>
       </c>
       <c r="O59" t="n">
-        <v>-0.1902680976586299</v>
+        <v>-0.1902680950961921</v>
       </c>
       <c r="P59" t="n">
-        <v>-0.2052625284215754</v>
+        <v>-0.2052625292812045</v>
       </c>
     </row>
     <row r="60">
@@ -3421,49 +3421,49 @@
         <v>43434</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01217132770490418</v>
+        <v>0.01217132787955676</v>
       </c>
       <c r="C60" t="n">
-        <v>0.005026404975425616</v>
+        <v>0.005026405513866228</v>
       </c>
       <c r="D60" t="n">
-        <v>0.005611259995944498</v>
+        <v>0.005611260083717226</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0006639007255370053</v>
+        <v>0.0006639005063152426</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.002306717412836838</v>
+        <v>-0.002306717480740619</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.005912986538707281</v>
+        <v>-0.005912986577443761</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.01259743726005432</v>
+        <v>-0.01259743739108839</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.01559019455000242</v>
+        <v>-0.01559019433345812</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.01856140360535947</v>
+        <v>-0.01856140333609386</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.0143349106211187</v>
+        <v>-0.01433491109580176</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.004695956914740569</v>
+        <v>-0.004695955792724277</v>
       </c>
       <c r="M60" t="n">
-        <v>0.006280057356182183</v>
+        <v>0.006280053820923844</v>
       </c>
       <c r="N60" t="n">
-        <v>0.01515493906265563</v>
+        <v>0.01515493488249675</v>
       </c>
       <c r="O60" t="n">
-        <v>0.003208185405693906</v>
+        <v>0.003208179826890727</v>
       </c>
       <c r="P60" t="n">
-        <v>-0.01283143726414289</v>
+        <v>-0.01283143743299416</v>
       </c>
     </row>
     <row r="61">
@@ -3471,49 +3471,49 @@
         <v>43465</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.02221375005675106</v>
+        <v>-0.02221375009093375</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.01967366397800751</v>
+        <v>-0.0196736653219677</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.02400628860473852</v>
+        <v>-0.02400628862503897</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.02399144694577978</v>
+        <v>-0.0239914469600722</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.02309617093075976</v>
+        <v>-0.02309617055807705</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.02557364853726897</v>
+        <v>-0.02557364852884251</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.02653662266549189</v>
+        <v>-0.02653662268917509</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.0263403783572463</v>
+        <v>-0.02634037847312186</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.02416325151232178</v>
+        <v>-0.02416325131719273</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.0306406750713007</v>
+        <v>-0.03064067475083941</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.02957822754876223</v>
+        <v>-0.02957822787691713</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.02063655981413399</v>
+        <v>-0.02063655797113961</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.00787303281642353</v>
+        <v>-0.00787303213694718</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.003046246038410619</v>
+        <v>-0.003046243003474125</v>
       </c>
       <c r="P61" t="n">
-        <v>0.01042179864622506</v>
+        <v>0.01042179805842755</v>
       </c>
     </row>
     <row r="62">
@@ -3521,49 +3521,49 @@
         <v>43496</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01883078504183818</v>
+        <v>0.0188307846935663</v>
       </c>
       <c r="C62" t="n">
-        <v>0.03051152666693133</v>
+        <v>0.03051152620635627</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0341018788783154</v>
+        <v>0.03410187912248513</v>
       </c>
       <c r="E62" t="n">
-        <v>0.04472640756702161</v>
+        <v>0.04472640756344254</v>
       </c>
       <c r="F62" t="n">
-        <v>0.05701809286143717</v>
+        <v>0.05701809275542671</v>
       </c>
       <c r="G62" t="n">
-        <v>0.07109752931953919</v>
+        <v>0.07109752926855611</v>
       </c>
       <c r="H62" t="n">
-        <v>0.08301030690918325</v>
+        <v>0.08301030686060235</v>
       </c>
       <c r="I62" t="n">
-        <v>0.08986758494031875</v>
+        <v>0.08986758495708908</v>
       </c>
       <c r="J62" t="n">
-        <v>0.09535309666498365</v>
+        <v>0.09535309622804125</v>
       </c>
       <c r="K62" t="n">
-        <v>0.09828449123251445</v>
+        <v>0.09828449104327765</v>
       </c>
       <c r="L62" t="n">
-        <v>0.09775639544038889</v>
+        <v>0.09775639594292755</v>
       </c>
       <c r="M62" t="n">
-        <v>0.09493415275117278</v>
+        <v>0.0949341513633567</v>
       </c>
       <c r="N62" t="n">
-        <v>0.08850356945021395</v>
+        <v>0.08850356813515513</v>
       </c>
       <c r="O62" t="n">
-        <v>0.07705581904758825</v>
+        <v>0.07705581515080681</v>
       </c>
       <c r="P62" t="n">
-        <v>0.0364742522183676</v>
+        <v>0.03647425305483423</v>
       </c>
     </row>
     <row r="63">
@@ -3571,49 +3571,49 @@
         <v>43524</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01749184927540838</v>
+        <v>0.01749184955730864</v>
       </c>
       <c r="C63" t="n">
-        <v>0.02200361639658702</v>
+        <v>0.02200361723450709</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03044646045753045</v>
+        <v>0.03044646041052348</v>
       </c>
       <c r="E63" t="n">
-        <v>0.03161457417289656</v>
+        <v>0.03161457420005923</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0327870178953121</v>
+        <v>0.03278701787014134</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03568221126857367</v>
+        <v>0.0356822112573486</v>
       </c>
       <c r="H63" t="n">
-        <v>0.04020021297798308</v>
+        <v>0.04020021311727819</v>
       </c>
       <c r="I63" t="n">
-        <v>0.03991633056625724</v>
+        <v>0.03991633055920916</v>
       </c>
       <c r="J63" t="n">
-        <v>0.04376286479474156</v>
+        <v>0.04376286477034442</v>
       </c>
       <c r="K63" t="n">
-        <v>0.04537720836181309</v>
+        <v>0.04537720865682066</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0434718945729133</v>
+        <v>0.04347189436599311</v>
       </c>
       <c r="M63" t="n">
-        <v>0.04230185099620463</v>
+        <v>0.04230185343101219</v>
       </c>
       <c r="N63" t="n">
-        <v>0.04348364254006346</v>
+        <v>0.04348364455877437</v>
       </c>
       <c r="O63" t="n">
-        <v>0.04368784072539206</v>
+        <v>0.0436878440679362</v>
       </c>
       <c r="P63" t="n">
-        <v>0.04623327947630606</v>
+        <v>0.04623327981030984</v>
       </c>
     </row>
     <row r="64">
@@ -3621,49 +3621,49 @@
         <v>43553</v>
       </c>
       <c r="B64" t="n">
-        <v>0.004471607588347877</v>
+        <v>0.004471608081852577</v>
       </c>
       <c r="C64" t="n">
-        <v>0.005485690042401174</v>
+        <v>0.00548568955218623</v>
       </c>
       <c r="D64" t="n">
-        <v>0.00798331272374179</v>
+        <v>0.007983312893219248</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01343730084098931</v>
+        <v>0.01343730089516081</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0206333817489299</v>
+        <v>0.02063338193230628</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02533925434951165</v>
+        <v>0.02533925427764867</v>
       </c>
       <c r="H64" t="n">
-        <v>0.02748898145934938</v>
+        <v>0.02748898154310903</v>
       </c>
       <c r="I64" t="n">
-        <v>0.02598484032265492</v>
+        <v>0.02598484039262395</v>
       </c>
       <c r="J64" t="n">
-        <v>0.02568605191550565</v>
+        <v>0.02568605170437396</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0244533384755407</v>
+        <v>0.0244533387763369</v>
       </c>
       <c r="L64" t="n">
-        <v>0.01792377278451093</v>
+        <v>0.01792377289659916</v>
       </c>
       <c r="M64" t="n">
-        <v>0.006663952612216814</v>
+        <v>0.006663955907035207</v>
       </c>
       <c r="N64" t="n">
-        <v>-0.005175001213906233</v>
+        <v>-0.005174999554102824</v>
       </c>
       <c r="O64" t="n">
-        <v>-0.01541878326272494</v>
+        <v>-0.01541877876726421</v>
       </c>
       <c r="P64" t="n">
-        <v>-0.0156425641399415</v>
+        <v>-0.01564256423249216</v>
       </c>
     </row>
     <row r="65">
@@ -3671,49 +3671,49 @@
         <v>43585</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01484929253129612</v>
+        <v>0.01484929303344376</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01508781447095328</v>
+        <v>0.0150878162969016</v>
       </c>
       <c r="D65" t="n">
-        <v>0.02168988243330019</v>
+        <v>0.02168988244287217</v>
       </c>
       <c r="E65" t="n">
-        <v>0.02745606992011308</v>
+        <v>0.02745606996171551</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0322954144223481</v>
+        <v>0.03229541473753614</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03497557989465653</v>
+        <v>0.03497557999548032</v>
       </c>
       <c r="H65" t="n">
-        <v>0.04262448439369794</v>
+        <v>0.04262448440720632</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0586936022083601</v>
+        <v>0.05869360229976599</v>
       </c>
       <c r="J65" t="n">
-        <v>0.06810130308057785</v>
+        <v>0.0681013037176891</v>
       </c>
       <c r="K65" t="n">
-        <v>0.08696261300741606</v>
+        <v>0.08696261304788777</v>
       </c>
       <c r="L65" t="n">
-        <v>0.1165637179009706</v>
+        <v>0.1165637177396427</v>
       </c>
       <c r="M65" t="n">
-        <v>0.1562034275148438</v>
+        <v>0.1562034257730712</v>
       </c>
       <c r="N65" t="n">
-        <v>0.2029659806897466</v>
+        <v>0.2029659790515499</v>
       </c>
       <c r="O65" t="n">
-        <v>0.2623704358763257</v>
+        <v>0.2623704347535294</v>
       </c>
       <c r="P65" t="n">
-        <v>0.3333919917883686</v>
+        <v>0.3333919922075053</v>
       </c>
     </row>
     <row r="66">
@@ -3721,49 +3721,49 @@
         <v>43616</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.01433803732066079</v>
+        <v>-0.01433803729557278</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.01369599002901322</v>
+        <v>-0.01369599047840405</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.0114339621250281</v>
+        <v>-0.01143396200760333</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.01215738147679595</v>
+        <v>-0.0121573814227523</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.01435732124536114</v>
+        <v>-0.01435732111355013</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.01663132811019833</v>
+        <v>-0.01663132787550551</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.01853351402266077</v>
+        <v>-0.01853351392264823</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.02067344543048055</v>
+        <v>-0.02067344605780331</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.02519531741203469</v>
+        <v>-0.02519531733802475</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.02325660083169446</v>
+        <v>-0.02325660121123271</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.01857946808367675</v>
+        <v>-0.01857946775222787</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.01319340461028906</v>
+        <v>-0.01319340608775642</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.006654597922891655</v>
+        <v>-0.006654598630017605</v>
       </c>
       <c r="O66" t="n">
-        <v>0.007923029420579212</v>
+        <v>0.00792302906505994</v>
       </c>
       <c r="P66" t="n">
-        <v>0.03800901927112263</v>
+        <v>0.03800901861809749</v>
       </c>
     </row>
     <row r="67">
@@ -3771,49 +3771,49 @@
         <v>43644</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03518753085623606</v>
+        <v>0.03518753095877432</v>
       </c>
       <c r="C67" t="n">
-        <v>0.03732316902201002</v>
+        <v>0.03732316906935183</v>
       </c>
       <c r="D67" t="n">
-        <v>0.03488365587883321</v>
+        <v>0.03488365591831177</v>
       </c>
       <c r="E67" t="n">
-        <v>0.03614735822483782</v>
+        <v>0.03614735835145128</v>
       </c>
       <c r="F67" t="n">
-        <v>0.03601372577678335</v>
+        <v>0.03601372569548218</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03241812649643781</v>
+        <v>0.0324181265737748</v>
       </c>
       <c r="H67" t="n">
-        <v>0.03577746534361072</v>
+        <v>0.03577746523910526</v>
       </c>
       <c r="I67" t="n">
-        <v>0.04535227452404837</v>
+        <v>0.0453522749085661</v>
       </c>
       <c r="J67" t="n">
-        <v>0.05446983909209496</v>
+        <v>0.05446983914766414</v>
       </c>
       <c r="K67" t="n">
-        <v>0.07239695054604943</v>
+        <v>0.07239695081446378</v>
       </c>
       <c r="L67" t="n">
-        <v>0.08895407987235514</v>
+        <v>0.08895408010254438</v>
       </c>
       <c r="M67" t="n">
-        <v>0.1072691252508259</v>
+        <v>0.1072691261385806</v>
       </c>
       <c r="N67" t="n">
-        <v>0.1240528069761868</v>
+        <v>0.1240528078151954</v>
       </c>
       <c r="O67" t="n">
-        <v>0.1310471109654895</v>
+        <v>0.1310471106478159</v>
       </c>
       <c r="P67" t="n">
-        <v>0.1238151338272845</v>
+        <v>0.1238151343319801</v>
       </c>
     </row>
     <row r="68">
@@ -3821,49 +3821,49 @@
         <v>43677</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.03606588183726088</v>
+        <v>-0.03606588170059094</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.02891270521936169</v>
+        <v>-0.0289127078563789</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.02742153702168153</v>
+        <v>-0.02742153684988257</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.0214865826587143</v>
+        <v>-0.02148658263972392</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.01663927974230763</v>
+        <v>-0.01663927955564078</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.01493502519420273</v>
+        <v>-0.01493502508123809</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.02042037478485046</v>
+        <v>-0.02042037502040392</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.03010182089864723</v>
+        <v>-0.03010182052298285</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.03852292690381275</v>
+        <v>-0.03852292700510272</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.04991223588665044</v>
+        <v>-0.04991223585885872</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.06407094909242997</v>
+        <v>-0.06407094885007898</v>
       </c>
       <c r="M68" t="n">
-        <v>-0.07685092023741447</v>
+        <v>-0.07685091967887163</v>
       </c>
       <c r="N68" t="n">
-        <v>-0.08972739195732246</v>
+        <v>-0.08972739141992619</v>
       </c>
       <c r="O68" t="n">
-        <v>-0.1007171968218325</v>
+        <v>-0.1007171974102497</v>
       </c>
       <c r="P68" t="n">
-        <v>-0.1212178655039846</v>
+        <v>-0.1212178657798344</v>
       </c>
     </row>
     <row r="69">
@@ -3871,49 +3871,49 @@
         <v>43707</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.0146001466921916</v>
+        <v>-0.01460014669179238</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.01323803777413482</v>
+        <v>-0.01323803846429835</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.01241514784387112</v>
+        <v>-0.01241514787559366</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.008453980742294698</v>
+        <v>-0.008453980695458704</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.007012114357625833</v>
+        <v>-0.007012114364405223</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.007712435561360486</v>
+        <v>-0.007712435552672855</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.01293433402825762</v>
+        <v>-0.01293433415269377</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.01629263923809942</v>
+        <v>-0.01629263934050374</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.01850958605426485</v>
+        <v>-0.01850958616982675</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.02207111314631326</v>
+        <v>-0.02207111369870205</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.02472763957113661</v>
+        <v>-0.02472763937169649</v>
       </c>
       <c r="M69" t="n">
-        <v>-0.03044311731173969</v>
+        <v>-0.03044312094428217</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.03468931413951296</v>
+        <v>-0.03468931658024565</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.02651517556101034</v>
+        <v>-0.02651518141120324</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.03348910083603693</v>
+        <v>-0.03348910111243205</v>
       </c>
     </row>
     <row r="70">
@@ -3921,49 +3921,49 @@
         <v>43738</v>
       </c>
       <c r="B70" t="n">
-        <v>0.007593544186185771</v>
+        <v>0.007593544037625497</v>
       </c>
       <c r="C70" t="n">
-        <v>0.009722331514679342</v>
+        <v>0.009722332541456807</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01484621210580426</v>
+        <v>0.01484621218848442</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01682598994113817</v>
+        <v>0.016825989867694</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01888136209951784</v>
+        <v>0.01888136213808858</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02252588924019766</v>
+        <v>0.02252588938152041</v>
       </c>
       <c r="H70" t="n">
-        <v>0.02951332224416868</v>
+        <v>0.02951332207515198</v>
       </c>
       <c r="I70" t="n">
-        <v>0.03508293527908893</v>
+        <v>0.0350829353717085</v>
       </c>
       <c r="J70" t="n">
-        <v>0.04259670933873491</v>
+        <v>0.0425967091571049</v>
       </c>
       <c r="K70" t="n">
-        <v>0.04580779383705413</v>
+        <v>0.04580779330564959</v>
       </c>
       <c r="L70" t="n">
-        <v>0.05310205522676253</v>
+        <v>0.05310205617126013</v>
       </c>
       <c r="M70" t="n">
-        <v>0.06321320710617886</v>
+        <v>0.06321320462512237</v>
       </c>
       <c r="N70" t="n">
-        <v>0.07374102768588717</v>
+        <v>0.07374102540009542</v>
       </c>
       <c r="O70" t="n">
-        <v>0.09154198742881763</v>
+        <v>0.09154198387575521</v>
       </c>
       <c r="P70" t="n">
-        <v>0.09866925701650316</v>
+        <v>0.0986692573782204</v>
       </c>
     </row>
     <row r="71">
@@ -3971,49 +3971,49 @@
         <v>43769</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01413450098808105</v>
+        <v>0.01413450070017899</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01851498976003305</v>
+        <v>0.0185149874454452</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01510311797205178</v>
+        <v>0.01510311785112395</v>
       </c>
       <c r="E71" t="n">
-        <v>0.01710748335996187</v>
+        <v>0.01710748322543879</v>
       </c>
       <c r="F71" t="n">
-        <v>0.01655423367682951</v>
+        <v>0.01655423344341792</v>
       </c>
       <c r="G71" t="n">
-        <v>0.01990455335758618</v>
+        <v>0.01990455324982725</v>
       </c>
       <c r="H71" t="n">
-        <v>0.024637610356847</v>
+        <v>0.02463761025867699</v>
       </c>
       <c r="I71" t="n">
-        <v>0.02807077360250066</v>
+        <v>0.02807077346190361</v>
       </c>
       <c r="J71" t="n">
-        <v>0.03066664806130054</v>
+        <v>0.03066664793559214</v>
       </c>
       <c r="K71" t="n">
-        <v>0.02315990356362723</v>
+        <v>0.02315990306081994</v>
       </c>
       <c r="L71" t="n">
-        <v>0.01158252413030781</v>
+        <v>0.01158252403625055</v>
       </c>
       <c r="M71" t="n">
-        <v>-0.004630759851169093</v>
+        <v>-0.004630763748933786</v>
       </c>
       <c r="N71" t="n">
-        <v>-0.02282335831399415</v>
+        <v>-0.02282336070984699</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.02331857796353268</v>
+        <v>-0.02331858096601203</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.005549275051199303</v>
+        <v>-0.005549274602635239</v>
       </c>
     </row>
     <row r="72">
@@ -4021,49 +4021,49 @@
         <v>43798</v>
       </c>
       <c r="B72" t="n">
-        <v>0.005632587284120177</v>
+        <v>0.005632587570686749</v>
       </c>
       <c r="C72" t="n">
-        <v>0.007708000838517708</v>
+        <v>0.007708001017373898</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01650159945271209</v>
+        <v>0.01650159940065384</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0176458864696914</v>
+        <v>0.01764588640881859</v>
       </c>
       <c r="F72" t="n">
-        <v>0.01851642205996869</v>
+        <v>0.01851642165388311</v>
       </c>
       <c r="G72" t="n">
-        <v>0.02294853839940621</v>
+        <v>0.02294853852243278</v>
       </c>
       <c r="H72" t="n">
-        <v>0.02591314274011234</v>
+        <v>0.02591314261556227</v>
       </c>
       <c r="I72" t="n">
-        <v>0.02904481956038616</v>
+        <v>0.02904481974535159</v>
       </c>
       <c r="J72" t="n">
-        <v>0.03638188678589308</v>
+        <v>0.0363818868559543</v>
       </c>
       <c r="K72" t="n">
-        <v>0.04171395414495763</v>
+        <v>0.04171395435270499</v>
       </c>
       <c r="L72" t="n">
-        <v>0.05760083917588926</v>
+        <v>0.05760083902652559</v>
       </c>
       <c r="M72" t="n">
-        <v>0.08064135213953406</v>
+        <v>0.0806413526161522</v>
       </c>
       <c r="N72" t="n">
-        <v>0.1077917198110877</v>
+        <v>0.107791720800405</v>
       </c>
       <c r="O72" t="n">
-        <v>0.1694950831670843</v>
+        <v>0.1694950891951851</v>
       </c>
       <c r="P72" t="n">
-        <v>0.2890571499364696</v>
+        <v>0.2890571502415716</v>
       </c>
     </row>
     <row r="73">
@@ -4071,49 +4071,49 @@
         <v>43830</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01447838450327183</v>
+        <v>0.01447838425190984</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01658816070287656</v>
+        <v>0.01658815985528043</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01609884733916322</v>
+        <v>0.0160988473791395</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0197309104205674</v>
+        <v>0.01973091044287182</v>
       </c>
       <c r="F73" t="n">
-        <v>0.02295719643356608</v>
+        <v>0.02295719657405675</v>
       </c>
       <c r="G73" t="n">
-        <v>0.02793248317040418</v>
+        <v>0.02793248341970215</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03612953173316068</v>
+        <v>0.03612953182713598</v>
       </c>
       <c r="I73" t="n">
-        <v>0.04668576211851909</v>
+        <v>0.04668576181285546</v>
       </c>
       <c r="J73" t="n">
-        <v>0.05693196751111709</v>
+        <v>0.05693196734972023</v>
       </c>
       <c r="K73" t="n">
-        <v>0.07658306342106501</v>
+        <v>0.07658306320011157</v>
       </c>
       <c r="L73" t="n">
-        <v>0.09258129547031864</v>
+        <v>0.09258129584896171</v>
       </c>
       <c r="M73" t="n">
-        <v>0.09987010980733503</v>
+        <v>0.09987010978900915</v>
       </c>
       <c r="N73" t="n">
-        <v>0.09857136284715863</v>
+        <v>0.09857136225814882</v>
       </c>
       <c r="O73" t="n">
-        <v>0.08777626787821199</v>
+        <v>0.0877762690805626</v>
       </c>
       <c r="P73" t="n">
-        <v>0.09118527730205633</v>
+        <v>0.09118527776560062</v>
       </c>
     </row>
     <row r="74">
@@ -4121,49 +4121,49 @@
         <v>43861</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.02653556960527898</v>
+        <v>-0.02653556979439228</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.0203540436508879</v>
+        <v>-0.02035404298305925</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01641342328721833</v>
+        <v>-0.0164134232789871</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.008768354583752455</v>
+        <v>-0.008768354537616801</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.005156554021513288</v>
+        <v>-0.005156553975033446</v>
       </c>
       <c r="G74" t="n">
-        <v>-1.259247971228342e-05</v>
+        <v>-1.259254385514285e-05</v>
       </c>
       <c r="H74" t="n">
-        <v>0.002695304863424983</v>
+        <v>0.002695305007308239</v>
       </c>
       <c r="I74" t="n">
-        <v>0.004711070516744657</v>
+        <v>0.00471106956285504</v>
       </c>
       <c r="J74" t="n">
-        <v>0.01481612244183475</v>
+        <v>0.01481612175356788</v>
       </c>
       <c r="K74" t="n">
-        <v>0.02071359584212997</v>
+        <v>0.02071359495633342</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0218763721416507</v>
+        <v>0.02187637319516295</v>
       </c>
       <c r="M74" t="n">
-        <v>0.01226343307933101</v>
+        <v>0.01226343032232312</v>
       </c>
       <c r="N74" t="n">
-        <v>0.006235895880175413</v>
+        <v>0.006235895996354161</v>
       </c>
       <c r="O74" t="n">
-        <v>0.04009740691444844</v>
+        <v>0.04009740612819633</v>
       </c>
       <c r="P74" t="n">
-        <v>0.08862379525122677</v>
+        <v>0.08862379502415653</v>
       </c>
     </row>
     <row r="75">
@@ -4171,49 +4171,49 @@
         <v>43889</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.02981544870889967</v>
+        <v>-0.02981544902876499</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.02457062393556203</v>
+        <v>-0.0245706246476225</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.04117663735469087</v>
+        <v>-0.04117663704294779</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.04430765250521847</v>
+        <v>-0.04430765244858181</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.04818775041725409</v>
+        <v>-0.04818775012194298</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.05000271184057195</v>
+        <v>-0.05000271205290086</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.05097670763939242</v>
+        <v>-0.05097670767894025</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.05432016799581031</v>
+        <v>-0.05432016815962123</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.05773671156585117</v>
+        <v>-0.0577367114040775</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.07407529551979097</v>
+        <v>-0.0740752954833281</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.09027922613349595</v>
+        <v>-0.09027922701235545</v>
       </c>
       <c r="M75" t="n">
-        <v>-0.1045415475107098</v>
+        <v>-0.1045415471956561</v>
       </c>
       <c r="N75" t="n">
-        <v>-0.1112854954448223</v>
+        <v>-0.1112854940034338</v>
       </c>
       <c r="O75" t="n">
-        <v>-0.1009821087563852</v>
+        <v>-0.1009821069043775</v>
       </c>
       <c r="P75" t="n">
-        <v>-0.0799504843640727</v>
+        <v>-0.07995048538303286</v>
       </c>
     </row>
     <row r="76">
@@ -4221,49 +4221,49 @@
         <v>43921</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.03024202960368864</v>
+        <v>-0.03024202789725313</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.03294987644847028</v>
+        <v>-0.03294987800540081</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.03737212729862577</v>
+        <v>-0.03737212765397235</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.04684088032157604</v>
+        <v>-0.04684088064889116</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.05208623924558088</v>
+        <v>-0.05208623983536698</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.04270060159040399</v>
+        <v>-0.04270060160291964</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.04837142216290621</v>
+        <v>-0.04837142229938879</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.07277307109909005</v>
+        <v>-0.07277307106232346</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.0923456310953336</v>
+        <v>-0.09234563114757328</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.1202259074482885</v>
+        <v>-0.1202259072346608</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.1617129836436919</v>
+        <v>-0.1617129856092201</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.2098719192671737</v>
+        <v>-0.2098719198797644</v>
       </c>
       <c r="N76" t="n">
-        <v>-0.2617919729172954</v>
+        <v>-0.2617919709486655</v>
       </c>
       <c r="O76" t="n">
-        <v>-0.30166277677597</v>
+        <v>-0.3016627776620042</v>
       </c>
       <c r="P76" t="n">
-        <v>-0.3327957011437679</v>
+        <v>-0.3327957034558601</v>
       </c>
     </row>
     <row r="77">
@@ -4271,49 +4271,49 @@
         <v>43951</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01573927473864201</v>
+        <v>0.01573927375190233</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0197820109574288</v>
+        <v>0.0197820115400102</v>
       </c>
       <c r="D77" t="n">
-        <v>0.02812095807053906</v>
+        <v>0.02812095808913263</v>
       </c>
       <c r="E77" t="n">
-        <v>0.03343568630283435</v>
+        <v>0.03343568621427367</v>
       </c>
       <c r="F77" t="n">
-        <v>0.04190425408006207</v>
+        <v>0.04190425371358633</v>
       </c>
       <c r="G77" t="n">
-        <v>0.05106417572501564</v>
+        <v>0.05106417578566222</v>
       </c>
       <c r="H77" t="n">
-        <v>0.05825576473371327</v>
+        <v>0.05825576461397662</v>
       </c>
       <c r="I77" t="n">
-        <v>0.07027567292744857</v>
+        <v>0.07027567320094963</v>
       </c>
       <c r="J77" t="n">
-        <v>0.09201799190897295</v>
+        <v>0.09201799204351348</v>
       </c>
       <c r="K77" t="n">
-        <v>0.1112642691906815</v>
+        <v>0.1112642694531351</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1354881557442522</v>
+        <v>0.1354881549882822</v>
       </c>
       <c r="M77" t="n">
-        <v>0.1645313534052446</v>
+        <v>0.1645313560536662</v>
       </c>
       <c r="N77" t="n">
-        <v>0.2027487926005108</v>
+        <v>0.2027487963226067</v>
       </c>
       <c r="O77" t="n">
-        <v>0.2830457518734638</v>
+        <v>0.283045760276841</v>
       </c>
       <c r="P77" t="n">
-        <v>0.4142942295331661</v>
+        <v>0.4142942306496275</v>
       </c>
     </row>
     <row r="78">
@@ -4321,49 +4321,49 @@
         <v>43980</v>
       </c>
       <c r="B78" t="n">
-        <v>0.02819314802861925</v>
+        <v>0.02819314863700474</v>
       </c>
       <c r="C78" t="n">
-        <v>0.03285338667131021</v>
+        <v>0.0328533880389847</v>
       </c>
       <c r="D78" t="n">
-        <v>0.03896770090303526</v>
+        <v>0.0389677006819885</v>
       </c>
       <c r="E78" t="n">
-        <v>0.04300086084502788</v>
+        <v>0.04300086096952938</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04577449837223103</v>
+        <v>0.04577449840688518</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05089329493898157</v>
+        <v>0.0508932951356805</v>
       </c>
       <c r="H78" t="n">
-        <v>0.06170318189446502</v>
+        <v>0.06170318215391988</v>
       </c>
       <c r="I78" t="n">
-        <v>0.07959966148509372</v>
+        <v>0.07959966146208353</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1012541658771538</v>
+        <v>0.1012541659848603</v>
       </c>
       <c r="K78" t="n">
-        <v>0.1277624987717927</v>
+        <v>0.1277624985101047</v>
       </c>
       <c r="L78" t="n">
-        <v>0.1550993792948112</v>
+        <v>0.155099379454881</v>
       </c>
       <c r="M78" t="n">
-        <v>0.1832234316769525</v>
+        <v>0.1832234305432956</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2171614756819096</v>
+        <v>0.2171614746500391</v>
       </c>
       <c r="O78" t="n">
-        <v>0.272974560090824</v>
+        <v>0.2729745552206522</v>
       </c>
       <c r="P78" t="n">
-        <v>0.2960003629200859</v>
+        <v>0.2960003633588228</v>
       </c>
     </row>
     <row r="79">
@@ -4371,49 +4371,49 @@
         <v>44012</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02065935054172979</v>
+        <v>0.02065935059264185</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0181734822196746</v>
+        <v>0.01817348292045858</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01351354749165637</v>
+        <v>0.01351354734676783</v>
       </c>
       <c r="E79" t="n">
-        <v>0.01191566055128483</v>
+        <v>0.01191566056419808</v>
       </c>
       <c r="F79" t="n">
-        <v>0.008989328946390748</v>
+        <v>0.008989329165684613</v>
       </c>
       <c r="G79" t="n">
-        <v>0.006778588787990406</v>
+        <v>0.006778588899266956</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0004837271945994486</v>
+        <v>0.0004837270822916777</v>
       </c>
       <c r="I79" t="n">
-        <v>0.004045163554668497</v>
+        <v>0.004045163561585215</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01002192200108033</v>
+        <v>0.01002192193700523</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02296291106456563</v>
+        <v>0.02296291096025179</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03100721527513618</v>
+        <v>0.03100721541038466</v>
       </c>
       <c r="M79" t="n">
-        <v>0.03319486406978348</v>
+        <v>0.03319486371084865</v>
       </c>
       <c r="N79" t="n">
-        <v>0.02992419418931539</v>
+        <v>0.02992419400097282</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0244169223300462</v>
+        <v>0.02441692056200705</v>
       </c>
       <c r="P79" t="n">
-        <v>0.006339169274231278</v>
+        <v>0.006339169545129645</v>
       </c>
     </row>
     <row r="80">
@@ -4421,49 +4421,49 @@
         <v>44043</v>
       </c>
       <c r="B80" t="n">
-        <v>0.04168512509690896</v>
+        <v>0.04168512476510121</v>
       </c>
       <c r="C80" t="n">
-        <v>0.04072209028737588</v>
+        <v>0.04072208945481499</v>
       </c>
       <c r="D80" t="n">
-        <v>0.04573858626792718</v>
+        <v>0.0457385861525126</v>
       </c>
       <c r="E80" t="n">
-        <v>0.04409090626617847</v>
+        <v>0.04409090614772257</v>
       </c>
       <c r="F80" t="n">
-        <v>0.04500909545193504</v>
+        <v>0.04500909453672588</v>
       </c>
       <c r="G80" t="n">
-        <v>0.04905480123571428</v>
+        <v>0.04905480094035444</v>
       </c>
       <c r="H80" t="n">
-        <v>0.05939757761216705</v>
+        <v>0.05939757760380986</v>
       </c>
       <c r="I80" t="n">
-        <v>0.06654363476194977</v>
+        <v>0.06654363508504915</v>
       </c>
       <c r="J80" t="n">
-        <v>0.07690612992823863</v>
+        <v>0.07690613042696429</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0944945372615163</v>
+        <v>0.09449453765514652</v>
       </c>
       <c r="L80" t="n">
-        <v>0.1075804402592098</v>
+        <v>0.1075804383085223</v>
       </c>
       <c r="M80" t="n">
-        <v>0.1147888267297188</v>
+        <v>0.1147888260203541</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1226923858829061</v>
+        <v>0.1226923866283418</v>
       </c>
       <c r="O80" t="n">
-        <v>0.1416474619049597</v>
+        <v>0.1416474615091314</v>
       </c>
       <c r="P80" t="n">
-        <v>0.1636227085165008</v>
+        <v>0.1636227088034759</v>
       </c>
     </row>
     <row r="81">
@@ -4471,49 +4471,49 @@
         <v>44074</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02933871908202083</v>
+        <v>0.02933871912281125</v>
       </c>
       <c r="C81" t="n">
-        <v>0.02706833684670534</v>
+        <v>0.02706833716863605</v>
       </c>
       <c r="D81" t="n">
-        <v>0.02687607947751847</v>
+        <v>0.02687607931490828</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0225237903502378</v>
+        <v>0.02252379029297915</v>
       </c>
       <c r="F81" t="n">
-        <v>0.02042796696824581</v>
+        <v>0.02042796686158202</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01858528873301422</v>
+        <v>0.01858528879481919</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0181128549325839</v>
+        <v>0.01811285485977413</v>
       </c>
       <c r="I81" t="n">
-        <v>0.02102840468390698</v>
+        <v>0.02102840494436218</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02838805713590123</v>
+        <v>0.02838805741972814</v>
       </c>
       <c r="K81" t="n">
-        <v>0.03413196876856313</v>
+        <v>0.03413196955118557</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03985576232314875</v>
+        <v>0.03985576127780734</v>
       </c>
       <c r="M81" t="n">
-        <v>0.04727841412199359</v>
+        <v>0.04727841770357217</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05666180400217836</v>
+        <v>0.05666180688469893</v>
       </c>
       <c r="O81" t="n">
-        <v>0.05519842713814107</v>
+        <v>0.05519843333639848</v>
       </c>
       <c r="P81" t="n">
-        <v>0.07476773696776473</v>
+        <v>0.0747677375270306</v>
       </c>
     </row>
     <row r="82">
@@ -4521,49 +4521,49 @@
         <v>44104</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.02253047475719094</v>
+        <v>-0.02253047428470247</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.02019324065088926</v>
+        <v>-0.02019324044628837</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01391989104442863</v>
+        <v>-0.01391989127376028</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.01083144080061759</v>
+        <v>-0.01083144079092647</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.007602016923484655</v>
+        <v>-0.00760201664879999</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.003761565337127147</v>
+        <v>-0.003761565394535959</v>
       </c>
       <c r="H82" t="n">
-        <v>0.00630640662320479</v>
+        <v>0.006306406650871295</v>
       </c>
       <c r="I82" t="n">
-        <v>0.01159781019489215</v>
+        <v>0.01159780997993482</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01855667419563223</v>
+        <v>0.01855667463956276</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02270435134049138</v>
+        <v>0.02270435166727537</v>
       </c>
       <c r="L82" t="n">
-        <v>0.02414445616325216</v>
+        <v>0.02414445421638459</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02271519746200672</v>
+        <v>0.02271519823882389</v>
       </c>
       <c r="N82" t="n">
-        <v>0.02653752099673309</v>
+        <v>0.02653752287241347</v>
       </c>
       <c r="O82" t="n">
-        <v>0.04083856112937718</v>
+        <v>0.0408385635840214</v>
       </c>
       <c r="P82" t="n">
-        <v>0.07252926362899938</v>
+        <v>0.07252926312108568</v>
       </c>
     </row>
     <row r="83">
@@ -4571,49 +4571,49 @@
         <v>44134</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.02465748420418423</v>
+        <v>-0.02465748433420542</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.02885681863818668</v>
+        <v>-0.02885681815771869</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.03495056268587116</v>
+        <v>-0.03495056250652284</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.03419740681932094</v>
+        <v>-0.03419740669592693</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.03309736190481676</v>
+        <v>-0.03309736205993082</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.03689228679725377</v>
+        <v>-0.03689228648461935</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.03753514941031803</v>
+        <v>-0.0375351493842237</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.0336903125644599</v>
+        <v>-0.03369031176465775</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.02495517105125367</v>
+        <v>-0.02495517104256293</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.02830343427550784</v>
+        <v>-0.02830343356536422</v>
       </c>
       <c r="L83" t="n">
-        <v>-0.03188119081102985</v>
+        <v>-0.03188119061544387</v>
       </c>
       <c r="M83" t="n">
-        <v>-0.03647091217409688</v>
+        <v>-0.03647090948864221</v>
       </c>
       <c r="N83" t="n">
-        <v>-0.04289637691323377</v>
+        <v>-0.04289637503548689</v>
       </c>
       <c r="O83" t="n">
-        <v>-0.0364678482508253</v>
+        <v>-0.03646784085655026</v>
       </c>
       <c r="P83" t="n">
-        <v>0.01782191412723035</v>
+        <v>0.01782191382285372</v>
       </c>
     </row>
     <row r="84">
@@ -4621,49 +4621,49 @@
         <v>44165</v>
       </c>
       <c r="B84" t="n">
-        <v>0.06362687781018393</v>
+        <v>0.06362687757129892</v>
       </c>
       <c r="C84" t="n">
-        <v>0.06718475792799368</v>
+        <v>0.06718475771876933</v>
       </c>
       <c r="D84" t="n">
-        <v>0.06951309544319792</v>
+        <v>0.06951309550238678</v>
       </c>
       <c r="E84" t="n">
-        <v>0.07578113108341618</v>
+        <v>0.07578113105384165</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08180712096435522</v>
+        <v>0.08180712134577425</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07981577889397998</v>
+        <v>0.07981577887133731</v>
       </c>
       <c r="H84" t="n">
-        <v>0.07697365932515295</v>
+        <v>0.07697365926697813</v>
       </c>
       <c r="I84" t="n">
-        <v>0.08582781866649421</v>
+        <v>0.08582781856723823</v>
       </c>
       <c r="J84" t="n">
-        <v>0.09386382133692536</v>
+        <v>0.09386382056309341</v>
       </c>
       <c r="K84" t="n">
-        <v>0.1041604434512422</v>
+        <v>0.1041604427681601</v>
       </c>
       <c r="L84" t="n">
-        <v>0.1093129695945789</v>
+        <v>0.1093129719375033</v>
       </c>
       <c r="M84" t="n">
-        <v>0.1081338706610345</v>
+        <v>0.1081338681884382</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09406223474899975</v>
+        <v>0.09406223155415856</v>
       </c>
       <c r="O84" t="n">
-        <v>0.05176425906476604</v>
+        <v>0.05176425423709144</v>
       </c>
       <c r="P84" t="n">
-        <v>-0.0202502730465222</v>
+        <v>-0.02025027069202681</v>
       </c>
     </row>
     <row r="85">
@@ -4671,49 +4671,49 @@
         <v>44196</v>
       </c>
       <c r="B85" t="n">
-        <v>0.03838245328494583</v>
+        <v>0.03838245357440269</v>
       </c>
       <c r="C85" t="n">
-        <v>0.03697947506497185</v>
+        <v>0.03697947204242343</v>
       </c>
       <c r="D85" t="n">
-        <v>0.03425295365582021</v>
+        <v>0.03425295364211872</v>
       </c>
       <c r="E85" t="n">
-        <v>0.03112092906484608</v>
+        <v>0.03112092904813807</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0299394465703168</v>
+        <v>0.02993944642387379</v>
       </c>
       <c r="G85" t="n">
-        <v>0.02780622925815703</v>
+        <v>0.02780622933496019</v>
       </c>
       <c r="H85" t="n">
-        <v>0.03158983003589358</v>
+        <v>0.03158983010018047</v>
       </c>
       <c r="I85" t="n">
-        <v>0.04678420884263326</v>
+        <v>0.04678420902678544</v>
       </c>
       <c r="J85" t="n">
-        <v>0.06292752702724881</v>
+        <v>0.06292752683880784</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0877391818044003</v>
+        <v>0.08773918210641656</v>
       </c>
       <c r="L85" t="n">
-        <v>0.115521303292873</v>
+        <v>0.1155213041335875</v>
       </c>
       <c r="M85" t="n">
-        <v>0.146416640107426</v>
+        <v>0.1464166421915</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1719721552666174</v>
+        <v>0.171972156360017</v>
       </c>
       <c r="O85" t="n">
-        <v>0.1780319887040596</v>
+        <v>0.1780319903405231</v>
       </c>
       <c r="P85" t="n">
-        <v>0.1719927208804539</v>
+        <v>0.1719927215694662</v>
       </c>
     </row>
     <row r="86">
@@ -4721,49 +4721,49 @@
         <v>44225</v>
       </c>
       <c r="B86" t="n">
-        <v>0.009684579335517274</v>
+        <v>0.009684579728909784</v>
       </c>
       <c r="C86" t="n">
-        <v>0.009788062858149921</v>
+        <v>0.009788064600085683</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01639439765652706</v>
+        <v>0.01639439755856174</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01719891842743887</v>
+        <v>0.01719891840523745</v>
       </c>
       <c r="F86" t="n">
-        <v>0.01736263554406398</v>
+        <v>0.01736263594688244</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01681324591623727</v>
+        <v>0.016813246123604</v>
       </c>
       <c r="H86" t="n">
-        <v>0.01349638259938631</v>
+        <v>0.01349638266495421</v>
       </c>
       <c r="I86" t="n">
-        <v>0.008943461268580222</v>
+        <v>0.008943461127739524</v>
       </c>
       <c r="J86" t="n">
-        <v>0.003512109979241076</v>
+        <v>0.003512110106651646</v>
       </c>
       <c r="K86" t="n">
-        <v>0.004233008850518808</v>
+        <v>0.004233009056978773</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0003933380947130512</v>
+        <v>0.0003933372935353894</v>
       </c>
       <c r="M86" t="n">
-        <v>-0.005946445507669949</v>
+        <v>-0.005946444655843993</v>
       </c>
       <c r="N86" t="n">
-        <v>-0.01975102509010592</v>
+        <v>-0.01975102434343964</v>
       </c>
       <c r="O86" t="n">
-        <v>-0.05072692661750185</v>
+        <v>-0.05072692508231855</v>
       </c>
       <c r="P86" t="n">
-        <v>-0.07346136538841506</v>
+        <v>-0.07346136551885631</v>
       </c>
     </row>
     <row r="87">
@@ -4771,49 +4771,49 @@
         <v>44253</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.01348773889017084</v>
+        <v>-0.01348773899129374</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.01426054299986545</v>
+        <v>-0.01426054159044595</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01401731253314914</v>
+        <v>-0.01401731247159405</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.01148588148952405</v>
+        <v>-0.01148588136728006</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.006033441539805165</v>
+        <v>-0.006033441194115443</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.007280611031799562</v>
+        <v>-0.007280610636626654</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.006005376040503226</v>
+        <v>-0.006005376161126744</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.003216007100469943</v>
+        <v>-0.003216006775183293</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.006708555459437346</v>
+        <v>-0.006708555462534082</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.001391800508515548</v>
+        <v>-0.001391799869677914</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.001761600634752154</v>
+        <v>-0.001761600225838295</v>
       </c>
       <c r="M87" t="n">
-        <v>-0.005518488369498878</v>
+        <v>-0.005518485635180638</v>
       </c>
       <c r="N87" t="n">
-        <v>-0.01713554987912216</v>
+        <v>-0.01713554823933905</v>
       </c>
       <c r="O87" t="n">
-        <v>-0.04848239992419794</v>
+        <v>-0.04848239448987866</v>
       </c>
       <c r="P87" t="n">
-        <v>-0.05825190217639033</v>
+        <v>-0.05825190160085265</v>
       </c>
     </row>
     <row r="88">
@@ -4821,49 +4821,49 @@
         <v>44286</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01627869209217899</v>
+        <v>0.01627869214773217</v>
       </c>
       <c r="C88" t="n">
-        <v>0.02043754435139483</v>
+        <v>0.02043754502742622</v>
       </c>
       <c r="D88" t="n">
-        <v>0.03378473976917828</v>
+        <v>0.03378473980151089</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0416952428722614</v>
+        <v>0.04169524291560222</v>
       </c>
       <c r="F88" t="n">
-        <v>0.04753137387890856</v>
+        <v>0.04753137393310125</v>
       </c>
       <c r="G88" t="n">
-        <v>0.05399396104613886</v>
+        <v>0.05399396093470869</v>
       </c>
       <c r="H88" t="n">
-        <v>0.05893359371480132</v>
+        <v>0.05893359383898256</v>
       </c>
       <c r="I88" t="n">
-        <v>0.06111497927647097</v>
+        <v>0.06111497949530422</v>
       </c>
       <c r="J88" t="n">
-        <v>0.05852135071532904</v>
+        <v>0.05852135099413934</v>
       </c>
       <c r="K88" t="n">
-        <v>0.04510091311746029</v>
+        <v>0.04510091315821307</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03532149684507459</v>
+        <v>0.03532149606955568</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03196357556969376</v>
+        <v>0.03196357532121818</v>
       </c>
       <c r="N88" t="n">
-        <v>0.03287094283827066</v>
+        <v>0.03287094192055439</v>
       </c>
       <c r="O88" t="n">
-        <v>0.02621616511071575</v>
+        <v>0.02621616612767031</v>
       </c>
       <c r="P88" t="n">
-        <v>0.0340009066957009</v>
+        <v>0.03400090698613668</v>
       </c>
     </row>
     <row r="89">
@@ -4871,49 +4871,49 @@
         <v>44316</v>
       </c>
       <c r="B89" t="n">
-        <v>0.004371538595434011</v>
+        <v>0.0043715387388227</v>
       </c>
       <c r="C89" t="n">
-        <v>0.004540923219309995</v>
+        <v>0.004540925449924173</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01544208469604185</v>
+        <v>0.0154420847037292</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0239888431867902</v>
+        <v>0.02398884325899452</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03361012960425556</v>
+        <v>0.033610129447283</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04145690330050859</v>
+        <v>0.04145690318981782</v>
       </c>
       <c r="H89" t="n">
-        <v>0.04559619293708991</v>
+        <v>0.04559619293933624</v>
       </c>
       <c r="I89" t="n">
-        <v>0.05402277423166474</v>
+        <v>0.054022774252083</v>
       </c>
       <c r="J89" t="n">
-        <v>0.06387042046037798</v>
+        <v>0.06387042052174326</v>
       </c>
       <c r="K89" t="n">
-        <v>0.07037082396642388</v>
+        <v>0.07037082448493893</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07312220961572782</v>
+        <v>0.07312220856333256</v>
       </c>
       <c r="M89" t="n">
-        <v>0.07502738799971014</v>
+        <v>0.07502738917372208</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07656897410042114</v>
+        <v>0.07656897584637223</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0770169702630655</v>
+        <v>0.07701697285647177</v>
       </c>
       <c r="P89" t="n">
-        <v>0.09263838479490991</v>
+        <v>0.09263838525141539</v>
       </c>
     </row>
     <row r="90">
@@ -4921,49 +4921,49 @@
         <v>44347</v>
       </c>
       <c r="B90" t="n">
-        <v>0.02041302367995939</v>
+        <v>0.02041302356167856</v>
       </c>
       <c r="C90" t="n">
-        <v>0.02265803276186132</v>
+        <v>0.02265803342746178</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02120864258938943</v>
+        <v>0.0212086426767189</v>
       </c>
       <c r="E90" t="n">
-        <v>0.02448926807959234</v>
+        <v>0.02448926803729952</v>
       </c>
       <c r="F90" t="n">
-        <v>0.02818427333246751</v>
+        <v>0.02818427338841637</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03070218999399608</v>
+        <v>0.03070218990932868</v>
       </c>
       <c r="H90" t="n">
-        <v>0.03995483192974739</v>
+        <v>0.03995483164860479</v>
       </c>
       <c r="I90" t="n">
-        <v>0.05224405993424373</v>
+        <v>0.05224406001329058</v>
       </c>
       <c r="J90" t="n">
-        <v>0.06949540129166817</v>
+        <v>0.06949540098377081</v>
       </c>
       <c r="K90" t="n">
-        <v>0.07204962504934129</v>
+        <v>0.07204962496533006</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07522302827011962</v>
+        <v>0.07522302909711868</v>
       </c>
       <c r="M90" t="n">
-        <v>0.07590725432924378</v>
+        <v>0.07590725445427923</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0782784095810851</v>
+        <v>0.07827840873217676</v>
       </c>
       <c r="O90" t="n">
-        <v>0.09768767066858952</v>
+        <v>0.09768767231892247</v>
       </c>
       <c r="P90" t="n">
-        <v>0.1345842850652832</v>
+        <v>0.1345842854095631</v>
       </c>
     </row>
     <row r="91">
@@ -4971,49 +4971,49 @@
         <v>44377</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.008463420329819553</v>
+        <v>-0.008463420099568316</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.005148191636760406</v>
+        <v>-0.005148191548604828</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.004427877007986844</v>
+        <v>-0.004427876941350641</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.002433826496213439</v>
+        <v>-0.002433826487495768</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.002026051839466163</v>
+        <v>-0.002026051713432595</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0006276414027072698</v>
+        <v>0.0006276413958547812</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.003259200378843451</v>
+        <v>-0.003259200390328705</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.01359206804091635</v>
+        <v>-0.01359206820819154</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.02384986409748341</v>
+        <v>-0.02384986422498369</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.0285370265481065</v>
+        <v>-0.02853702669955523</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.0381002757563699</v>
+        <v>-0.03810027560752</v>
       </c>
       <c r="M91" t="n">
-        <v>-0.05030852303654465</v>
+        <v>-0.05030852402962654</v>
       </c>
       <c r="N91" t="n">
-        <v>-0.06067545565800001</v>
+        <v>-0.06067545531136928</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.06488090270645679</v>
+        <v>-0.06488090436686537</v>
       </c>
       <c r="P91" t="n">
-        <v>-0.07212634348606511</v>
+        <v>-0.07212634382189596</v>
       </c>
     </row>
     <row r="92">
@@ -5021,49 +5021,49 @@
         <v>44407</v>
       </c>
       <c r="B92" t="n">
-        <v>0.01190840628060365</v>
+        <v>0.01190840616507889</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01936567981787448</v>
+        <v>0.0193656798641731</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02605824572262008</v>
+        <v>0.02605824577630349</v>
       </c>
       <c r="E92" t="n">
-        <v>0.03192426928135039</v>
+        <v>0.03192426947412969</v>
       </c>
       <c r="F92" t="n">
-        <v>0.03748168722474881</v>
+        <v>0.03748168748337485</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03575686429642214</v>
+        <v>0.03575686391848952</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0303861066284132</v>
+        <v>0.0303861067784388</v>
       </c>
       <c r="I92" t="n">
-        <v>0.02729225247241908</v>
+        <v>0.0272922522521345</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03110977649565723</v>
+        <v>0.03110977629298698</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02364832923488143</v>
+        <v>0.02364832914883178</v>
       </c>
       <c r="L92" t="n">
-        <v>0.01193066833666017</v>
+        <v>0.01193066872719787</v>
       </c>
       <c r="M92" t="n">
-        <v>-0.003034837756260206</v>
+        <v>-0.00303483646851034</v>
       </c>
       <c r="N92" t="n">
-        <v>-0.008579614940341946</v>
+        <v>-0.008579613841595125</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.004144847822927968</v>
+        <v>-0.004144845626345243</v>
       </c>
       <c r="P92" t="n">
-        <v>0.003793919564527264</v>
+        <v>0.003793919689210503</v>
       </c>
     </row>
     <row r="93">
@@ -5071,49 +5071,49 @@
         <v>44439</v>
       </c>
       <c r="B93" t="n">
-        <v>0.00409158601004856</v>
+        <v>0.00409158626288579</v>
       </c>
       <c r="C93" t="n">
-        <v>0.01355998159443396</v>
+        <v>0.01355998153549942</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01925747195788437</v>
+        <v>0.01925747214408162</v>
       </c>
       <c r="E93" t="n">
-        <v>0.02489538266394954</v>
+        <v>0.02489538263807798</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03078975195920483</v>
+        <v>0.0307897519821917</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0324607758355021</v>
+        <v>0.03246077597841646</v>
       </c>
       <c r="H93" t="n">
-        <v>0.03236715013615409</v>
+        <v>0.03236714998885011</v>
       </c>
       <c r="I93" t="n">
-        <v>0.02247659478672046</v>
+        <v>0.02247659500541611</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01659114911433018</v>
+        <v>0.01659114886463577</v>
       </c>
       <c r="K93" t="n">
-        <v>0.01008317208780331</v>
+        <v>0.01008317198171702</v>
       </c>
       <c r="L93" t="n">
-        <v>0.005939664066011629</v>
+        <v>0.005939664153758111</v>
       </c>
       <c r="M93" t="n">
-        <v>0.005794359566589008</v>
+        <v>0.005794359930680601</v>
       </c>
       <c r="N93" t="n">
-        <v>0.007516418854912017</v>
+        <v>0.00751641933007985</v>
       </c>
       <c r="O93" t="n">
-        <v>0.01263822826490096</v>
+        <v>0.01263822815217303</v>
       </c>
       <c r="P93" t="n">
-        <v>0.01070548956424754</v>
+        <v>0.01070548978493748</v>
       </c>
     </row>
     <row r="94">
@@ -5121,49 +5121,49 @@
         <v>44469</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.04188831873377514</v>
+        <v>-0.04188831912169093</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.04209862880496625</v>
+        <v>-0.04209862904248231</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.04129641520104405</v>
+        <v>-0.0412964152072493</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.04050769254093568</v>
+        <v>-0.04050769256276585</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.04179550344149541</v>
+        <v>-0.0417955033483067</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.04248868250691132</v>
+        <v>-0.0424886822436536</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.04450148304150012</v>
+        <v>-0.04450148303502359</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.0512064425654235</v>
+        <v>-0.05120644246588045</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.0608137196525827</v>
+        <v>-0.06081372002520434</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.07003779661734522</v>
+        <v>-0.07003779678807097</v>
       </c>
       <c r="L94" t="n">
-        <v>-0.07406028882157031</v>
+        <v>-0.07406028752305303</v>
       </c>
       <c r="M94" t="n">
-        <v>-0.07426792563415732</v>
+        <v>-0.07426792500358806</v>
       </c>
       <c r="N94" t="n">
-        <v>-0.07612473367920868</v>
+        <v>-0.07612473433870449</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.09003463596233566</v>
+        <v>-0.09003463713048543</v>
       </c>
       <c r="P94" t="n">
-        <v>-0.1282374619828575</v>
+        <v>-0.1282374624414323</v>
       </c>
     </row>
     <row r="95">
@@ -5171,49 +5171,49 @@
         <v>44498</v>
       </c>
       <c r="B95" t="n">
-        <v>0.005177049367475843</v>
+        <v>0.005177049070542246</v>
       </c>
       <c r="C95" t="n">
-        <v>0.007551975876997556</v>
+        <v>0.007551975932779494</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01144285589770052</v>
+        <v>0.01144285594649936</v>
       </c>
       <c r="E95" t="n">
-        <v>0.01528093046208973</v>
+        <v>0.01528093035194154</v>
       </c>
       <c r="F95" t="n">
-        <v>0.01712742212399199</v>
+        <v>0.01712742178916208</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01925395788024924</v>
+        <v>0.01925395779952522</v>
       </c>
       <c r="H95" t="n">
-        <v>0.02299497811299478</v>
+        <v>0.02299497810998058</v>
       </c>
       <c r="I95" t="n">
-        <v>0.01861039597920705</v>
+        <v>0.01861039612002189</v>
       </c>
       <c r="J95" t="n">
-        <v>0.01282110711900395</v>
+        <v>0.01282110711884687</v>
       </c>
       <c r="K95" t="n">
-        <v>0.007862824963586713</v>
+        <v>0.007862825426565372</v>
       </c>
       <c r="L95" t="n">
-        <v>-0.002547116298394402</v>
+        <v>-0.002547116292413801</v>
       </c>
       <c r="M95" t="n">
-        <v>-0.01033882555003984</v>
+        <v>-0.01033882451093302</v>
       </c>
       <c r="N95" t="n">
-        <v>-0.01974368643946176</v>
+        <v>-0.01974368517546547</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.03624100377833391</v>
+        <v>-0.03624100157892338</v>
       </c>
       <c r="P95" t="n">
-        <v>-0.04525500126267316</v>
+        <v>-0.04525500104708603</v>
       </c>
     </row>
     <row r="96">
@@ -5221,49 +5221,49 @@
         <v>44530</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.02374033554047032</v>
+        <v>-0.0237403350373236</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.0243421018658268</v>
+        <v>-0.02434210022865323</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.01714202872023802</v>
+        <v>-0.01714202868900123</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.01437983699020734</v>
+        <v>-0.01437983685578798</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.01481484217526172</v>
+        <v>-0.01481484186544069</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.01584246714720919</v>
+        <v>-0.01584246707346712</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.02013812740285647</v>
+        <v>-0.02013812730883648</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.0329056589707945</v>
+        <v>-0.03290565903726947</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.04643112807692269</v>
+        <v>-0.04643112797628637</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.05833379856582165</v>
+        <v>-0.05833379828619489</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.06948144723360115</v>
+        <v>-0.06948144649360835</v>
       </c>
       <c r="M96" t="n">
-        <v>-0.07520304511925485</v>
+        <v>-0.07520304517476784</v>
       </c>
       <c r="N96" t="n">
-        <v>-0.07192483714938273</v>
+        <v>-0.07192483717308189</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.06320397171474892</v>
+        <v>-0.06320397268527005</v>
       </c>
       <c r="P96" t="n">
-        <v>-0.05970178104362941</v>
+        <v>-0.05970178158840195</v>
       </c>
     </row>
     <row r="97">
@@ -5271,49 +5271,49 @@
         <v>44561</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02112831034863666</v>
+        <v>0.02112830919817001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.02854623442004414</v>
+        <v>0.02854623094315341</v>
       </c>
       <c r="D97" t="n">
-        <v>0.02794868007062824</v>
+        <v>0.02794867997286354</v>
       </c>
       <c r="E97" t="n">
-        <v>0.03954369289083244</v>
+        <v>0.03954369272825634</v>
       </c>
       <c r="F97" t="n">
-        <v>0.04809709452072863</v>
+        <v>0.04809709425453493</v>
       </c>
       <c r="G97" t="n">
-        <v>0.06035904832333038</v>
+        <v>0.06035904823487456</v>
       </c>
       <c r="H97" t="n">
-        <v>0.06630846516780578</v>
+        <v>0.06630846501939699</v>
       </c>
       <c r="I97" t="n">
-        <v>0.07103177694857363</v>
+        <v>0.07103177712792223</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0777029698996667</v>
+        <v>0.07770297004712884</v>
       </c>
       <c r="K97" t="n">
-        <v>0.07992668374881159</v>
+        <v>0.07992668365086412</v>
       </c>
       <c r="L97" t="n">
-        <v>0.08030440093440021</v>
+        <v>0.08030440018880289</v>
       </c>
       <c r="M97" t="n">
-        <v>0.08258569244299462</v>
+        <v>0.08258569255693181</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08342572943374571</v>
+        <v>0.08342572974438431</v>
       </c>
       <c r="O97" t="n">
-        <v>0.08252607776803708</v>
+        <v>0.08252607890079899</v>
       </c>
       <c r="P97" t="n">
-        <v>0.09049176207653253</v>
+        <v>0.09049176268117737</v>
       </c>
     </row>
     <row r="98">
@@ -5321,49 +5321,49 @@
         <v>44592</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.02010098658330695</v>
+        <v>-0.02010098651331051</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.02686461599797646</v>
+        <v>-0.02686461455980686</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.02829163533115358</v>
+        <v>-0.02829163531753163</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.0356369313730757</v>
+        <v>-0.03563693133466133</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04041760441248686</v>
+        <v>-0.0404176046736494</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04688089016788675</v>
+        <v>-0.0468808901573525</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.05389696005657781</v>
+        <v>-0.05389696015212857</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.05694937412916563</v>
+        <v>-0.05694937418404435</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.0651587886744019</v>
+        <v>-0.06515878887549546</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.0707150956386039</v>
+        <v>-0.07071509626942861</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.07074948889014895</v>
+        <v>-0.07074948817525904</v>
       </c>
       <c r="M98" t="n">
-        <v>-0.07140110554747443</v>
+        <v>-0.07140110989040174</v>
       </c>
       <c r="N98" t="n">
-        <v>-0.08372715853588722</v>
+        <v>-0.08372716318116409</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.1228394957129355</v>
+        <v>-0.1228395048901133</v>
       </c>
       <c r="P98" t="n">
-        <v>-0.2048913489103075</v>
+        <v>-0.2048913493005223</v>
       </c>
     </row>
     <row r="99">
@@ -5371,49 +5371,49 @@
         <v>44620</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.002927282248297388</v>
+        <v>-0.002927282478224358</v>
       </c>
       <c r="C99" t="n">
-        <v>0.001977645990059619</v>
+        <v>0.001977644730025315</v>
       </c>
       <c r="D99" t="n">
-        <v>0.004132743101482348</v>
+        <v>0.004132743060412368</v>
       </c>
       <c r="E99" t="n">
-        <v>0.008129911204951186</v>
+        <v>0.008129911142278136</v>
       </c>
       <c r="F99" t="n">
-        <v>0.009338949841359205</v>
+        <v>0.009338949392879726</v>
       </c>
       <c r="G99" t="n">
-        <v>0.007898797067521378</v>
+        <v>0.007898796216120694</v>
       </c>
       <c r="H99" t="n">
-        <v>0.003708747736555175</v>
+        <v>0.003708747782464075</v>
       </c>
       <c r="I99" t="n">
-        <v>0.01638856906996182</v>
+        <v>0.01638856871413272</v>
       </c>
       <c r="J99" t="n">
-        <v>0.01616755354924911</v>
+        <v>0.01616755352072526</v>
       </c>
       <c r="K99" t="n">
-        <v>0.01989233297345434</v>
+        <v>0.01989233018214099</v>
       </c>
       <c r="L99" t="n">
-        <v>0.03238649349702268</v>
+        <v>0.03238649568300413</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05308902693142606</v>
+        <v>0.05308900785182216</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07142143451341812</v>
+        <v>0.07142141971991672</v>
       </c>
       <c r="O99" t="n">
-        <v>0.08043118580486944</v>
+        <v>0.08043114905047503</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.05849425434236263</v>
+        <v>-0.05849425468808984</v>
       </c>
     </row>
     <row r="100">
@@ -5421,49 +5421,49 @@
         <v>44651</v>
       </c>
       <c r="B100" t="n">
-        <v>0.01304466346290357</v>
+        <v>0.01304466378969094</v>
       </c>
       <c r="C100" t="n">
-        <v>0.02131678915997871</v>
+        <v>0.02131679094677707</v>
       </c>
       <c r="D100" t="n">
-        <v>0.03043078262722953</v>
+        <v>0.030430782669958</v>
       </c>
       <c r="E100" t="n">
-        <v>0.03450264620954825</v>
+        <v>0.03450264620917889</v>
       </c>
       <c r="F100" t="n">
-        <v>0.03632839968308444</v>
+        <v>0.03632840034514424</v>
       </c>
       <c r="G100" t="n">
-        <v>0.04746668338812554</v>
+        <v>0.04746668365326673</v>
       </c>
       <c r="H100" t="n">
-        <v>0.05397463263465081</v>
+        <v>0.05397463269997176</v>
       </c>
       <c r="I100" t="n">
-        <v>0.06333297843275024</v>
+        <v>0.06333297784071541</v>
       </c>
       <c r="J100" t="n">
-        <v>0.06038304376551588</v>
+        <v>0.06038304368445756</v>
       </c>
       <c r="K100" t="n">
-        <v>0.07278046556114151</v>
+        <v>0.07278046499631627</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08419866543113333</v>
+        <v>0.08419866594789563</v>
       </c>
       <c r="M100" t="n">
-        <v>0.09555449622986927</v>
+        <v>0.09555449211938907</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1021129962732467</v>
+        <v>0.1021129922588703</v>
       </c>
       <c r="O100" t="n">
-        <v>0.07173433056974529</v>
+        <v>0.07173431843784923</v>
       </c>
       <c r="P100" t="n">
-        <v>-0.03708537815920181</v>
+        <v>-0.03708537828664952</v>
       </c>
     </row>
     <row r="101">
@@ -5471,49 +5471,49 @@
         <v>44680</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.0334515635740684</v>
+        <v>-0.03345156382232178</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.03025603609379865</v>
+        <v>-0.03025603623622197</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.02552436369903314</v>
+        <v>-0.02552436377425642</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.02149648075786927</v>
+        <v>-0.02149648065785566</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.01976823803318431</v>
+        <v>-0.01976823761677905</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01684834581259229</v>
+        <v>-0.01684834570551216</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.01407723295907633</v>
+        <v>-0.01407723265395588</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.009526873334760622</v>
+        <v>-0.009526873899512596</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.01172675173628003</v>
+        <v>-0.0117267516180606</v>
       </c>
       <c r="K101" t="n">
-        <v>-0.01578085916628954</v>
+        <v>-0.01578085940113731</v>
       </c>
       <c r="L101" t="n">
-        <v>-0.01135609538658933</v>
+        <v>-0.01135609570618643</v>
       </c>
       <c r="M101" t="n">
-        <v>-0.002561914814918886</v>
+        <v>-0.002561915680282801</v>
       </c>
       <c r="N101" t="n">
-        <v>0.006982243595766201</v>
+        <v>0.006982241901673538</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.0002537153624643657</v>
+        <v>-0.0002537178377932765</v>
       </c>
       <c r="P101" t="n">
-        <v>-0.02741199878653228</v>
+        <v>-0.02741199929389295</v>
       </c>
     </row>
     <row r="102">
@@ -5521,49 +5521,49 @@
         <v>44712</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.01850841590500426</v>
+        <v>-0.01850841583480391</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.004148558289615389</v>
+        <v>-0.004148560513947725</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.003548399081133267</v>
+        <v>-0.003548399058557894</v>
       </c>
       <c r="E102" t="n">
-        <v>0.003708580149288867</v>
+        <v>0.003708580275106706</v>
       </c>
       <c r="F102" t="n">
-        <v>0.00730007007747465</v>
+        <v>0.007300070166131128</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01592539636988378</v>
+        <v>0.01592539647911013</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0180408379672483</v>
+        <v>0.01804083826350132</v>
       </c>
       <c r="I102" t="n">
-        <v>0.01708976990192819</v>
+        <v>0.01708976976043087</v>
       </c>
       <c r="J102" t="n">
-        <v>0.01540549626418482</v>
+        <v>0.01540549627586478</v>
       </c>
       <c r="K102" t="n">
-        <v>0.004676218321667181</v>
+        <v>0.00467621833267776</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.009321212434248993</v>
+        <v>-0.009321213788147268</v>
       </c>
       <c r="M102" t="n">
-        <v>-0.02710900555184052</v>
+        <v>-0.02710900457083086</v>
       </c>
       <c r="N102" t="n">
-        <v>-0.03940113292082986</v>
+        <v>-0.03940113157986826</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.02906811295909921</v>
+        <v>-0.02906810993443595</v>
       </c>
       <c r="P102" t="n">
-        <v>-0.005659566337221188</v>
+        <v>-0.00565956627491573</v>
       </c>
     </row>
     <row r="103">
@@ -5571,49 +5571,49 @@
         <v>44742</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.03148695776105042</v>
+        <v>-0.03148695785482488</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.02651168599349756</v>
+        <v>-0.02651168596470747</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.02822693139593174</v>
+        <v>-0.02822693135735389</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.02385775830536212</v>
+        <v>-0.02385775818374376</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.02230100118956707</v>
+        <v>-0.02230100098945348</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.02070464920795946</v>
+        <v>-0.02070464921522238</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.01666506656284029</v>
+        <v>-0.01666506645771263</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.01695716067479293</v>
+        <v>-0.01695716094274103</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.021518818059657</v>
+        <v>-0.02151881784279983</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.03055579232931608</v>
+        <v>-0.03055579243384628</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.03643766751324779</v>
+        <v>-0.03643766769263047</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.03318780840561086</v>
+        <v>-0.03318780921297895</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.02728775822042025</v>
+        <v>-0.02728775926448158</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.04804732359908701</v>
+        <v>-0.04804732899248198</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.1230272160827094</v>
+        <v>-0.1230272173279966</v>
       </c>
     </row>
     <row r="104">
@@ -5621,49 +5621,49 @@
         <v>44771</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.006029329390002796</v>
+        <v>-0.00602932932229978</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.002979415930221217</v>
+        <v>-0.002979415068233817</v>
       </c>
       <c r="D104" t="n">
-        <v>0.008305433046299316</v>
+        <v>0.008305433114887127</v>
       </c>
       <c r="E104" t="n">
-        <v>0.01531145997899108</v>
+        <v>0.01531145984712769</v>
       </c>
       <c r="F104" t="n">
-        <v>0.02211404278857168</v>
+        <v>0.02211404253210827</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03853145510752951</v>
+        <v>0.03853145504917732</v>
       </c>
       <c r="H104" t="n">
-        <v>0.04577397784250927</v>
+        <v>0.04577397745055493</v>
       </c>
       <c r="I104" t="n">
-        <v>0.04891220594904475</v>
+        <v>0.04891220628011328</v>
       </c>
       <c r="J104" t="n">
-        <v>0.05414530963048593</v>
+        <v>0.05414530933671561</v>
       </c>
       <c r="K104" t="n">
-        <v>0.04499474228006423</v>
+        <v>0.04499474244940732</v>
       </c>
       <c r="L104" t="n">
-        <v>0.03430498517666763</v>
+        <v>0.03430498655083086</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0233453927604856</v>
+        <v>0.02334539473829975</v>
       </c>
       <c r="N104" t="n">
-        <v>0.01828786343883679</v>
+        <v>0.0182878641503571</v>
       </c>
       <c r="O104" t="n">
-        <v>0.05305364628837748</v>
+        <v>0.05305365461393093</v>
       </c>
       <c r="P104" t="n">
-        <v>0.1617700197016658</v>
+        <v>0.1617700201628474</v>
       </c>
     </row>
     <row r="105">
@@ -5671,49 +5671,49 @@
         <v>44804</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.01809097086132479</v>
+        <v>-0.01809097051138786</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.01352698497011705</v>
+        <v>-0.01352698354824391</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.007301493040533409</v>
+        <v>-0.007301492922012747</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.00606113690288704</v>
+        <v>-0.006061136872024597</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.005693298241335122</v>
+        <v>-0.005693298078866654</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.009385219236354075</v>
+        <v>-0.009385219280946849</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.02482346377023514</v>
+        <v>-0.02482346389124099</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.0416730949117964</v>
+        <v>-0.04167309412632451</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.06206652874652826</v>
+        <v>-0.06206652904984107</v>
       </c>
       <c r="K105" t="n">
-        <v>-0.08005193817509981</v>
+        <v>-0.08005193779776343</v>
       </c>
       <c r="L105" t="n">
-        <v>-0.09171664601279472</v>
+        <v>-0.09171664515529214</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.1017583381935498</v>
+        <v>-0.1017583359126716</v>
       </c>
       <c r="N105" t="n">
-        <v>-0.1096815635710487</v>
+        <v>-0.1096815632267155</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.1136954014689925</v>
+        <v>-0.1136953979089825</v>
       </c>
       <c r="P105" t="n">
-        <v>-0.1125948034565057</v>
+        <v>-0.1125948041872831</v>
       </c>
     </row>
     <row r="106">
@@ -5721,49 +5721,49 @@
         <v>44834</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.06430637864334231</v>
+        <v>-0.06430637910740221</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.060803385983512</v>
+        <v>-0.0608033863086548</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.06895604707960386</v>
+        <v>-0.06895604705452349</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.06979457342220829</v>
+        <v>-0.06979457326797671</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.07214655538341644</v>
+        <v>-0.07214655521667486</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.07340161750117562</v>
+        <v>-0.0734016176384833</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.07091410932261061</v>
+        <v>-0.0709141091602512</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.06801822354254165</v>
+        <v>-0.06801822361384591</v>
       </c>
       <c r="J106" t="n">
-        <v>-0.06801234401409173</v>
+        <v>-0.06801234404996662</v>
       </c>
       <c r="K106" t="n">
-        <v>-0.07578164925759402</v>
+        <v>-0.07578164913436844</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.0881309486279238</v>
+        <v>-0.08813094912095995</v>
       </c>
       <c r="M106" t="n">
-        <v>-0.1072328486151952</v>
+        <v>-0.107232847105157</v>
       </c>
       <c r="N106" t="n">
-        <v>-0.1239932923065684</v>
+        <v>-0.1239932911468629</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.1538879645494579</v>
+        <v>-0.1538879653088603</v>
       </c>
       <c r="P106" t="n">
-        <v>-0.2134065993154658</v>
+        <v>-0.2134066004500562</v>
       </c>
     </row>
     <row r="107">
@@ -5771,49 +5771,49 @@
         <v>44865</v>
       </c>
       <c r="B107" t="n">
-        <v>0.04727899625659499</v>
+        <v>0.04727899656046707</v>
       </c>
       <c r="C107" t="n">
-        <v>0.05284384526224959</v>
+        <v>0.05284384756057126</v>
       </c>
       <c r="D107" t="n">
-        <v>0.06351586773246713</v>
+        <v>0.06351586785504088</v>
       </c>
       <c r="E107" t="n">
-        <v>0.06397897969339678</v>
+        <v>0.06397897952130489</v>
       </c>
       <c r="F107" t="n">
-        <v>0.06580685641039313</v>
+        <v>0.06580685623501108</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06894137822274983</v>
+        <v>0.06894137811381178</v>
       </c>
       <c r="H107" t="n">
-        <v>0.06641751963595419</v>
+        <v>0.06641751954784561</v>
       </c>
       <c r="I107" t="n">
-        <v>0.07163639399892933</v>
+        <v>0.07163639433100122</v>
       </c>
       <c r="J107" t="n">
-        <v>0.08160991148744051</v>
+        <v>0.08160991147207658</v>
       </c>
       <c r="K107" t="n">
-        <v>0.08480845212246732</v>
+        <v>0.08480845191400459</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08873621561827635</v>
+        <v>0.08873621584272015</v>
       </c>
       <c r="M107" t="n">
-        <v>0.09544693003116664</v>
+        <v>0.09544692812023037</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1029257775229883</v>
+        <v>0.1029257763233767</v>
       </c>
       <c r="O107" t="n">
-        <v>0.1175224781003148</v>
+        <v>0.1175224772437918</v>
       </c>
       <c r="P107" t="n">
-        <v>0.1472648224991813</v>
+        <v>0.147264823306077</v>
       </c>
     </row>
     <row r="108">
@@ -5821,49 +5821,49 @@
         <v>44895</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0390824743491273</v>
+        <v>0.03908247484125237</v>
       </c>
       <c r="C108" t="n">
-        <v>0.03683455740556783</v>
+        <v>0.03683455854711828</v>
       </c>
       <c r="D108" t="n">
-        <v>0.04068622888913413</v>
+        <v>0.04068622865107523</v>
       </c>
       <c r="E108" t="n">
-        <v>0.04325728164489217</v>
+        <v>0.04325728167009596</v>
       </c>
       <c r="F108" t="n">
-        <v>0.04522507881135214</v>
+        <v>0.04522507870141734</v>
       </c>
       <c r="G108" t="n">
-        <v>0.04587649411369086</v>
+        <v>0.04587649417451683</v>
       </c>
       <c r="H108" t="n">
-        <v>0.05442782289775426</v>
+        <v>0.05442782276099525</v>
       </c>
       <c r="I108" t="n">
-        <v>0.07250370737501835</v>
+        <v>0.07250370752910157</v>
       </c>
       <c r="J108" t="n">
-        <v>0.08996949345585825</v>
+        <v>0.0899694933237469</v>
       </c>
       <c r="K108" t="n">
-        <v>0.116954367689223</v>
+        <v>0.1169543674810527</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1455770343318854</v>
+        <v>0.145577035666648</v>
       </c>
       <c r="M108" t="n">
-        <v>0.1686401879613327</v>
+        <v>0.1686401839418838</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1854564646419654</v>
+        <v>0.1854564602611535</v>
       </c>
       <c r="O108" t="n">
-        <v>0.1961939201680695</v>
+        <v>0.1961939136607324</v>
       </c>
       <c r="P108" t="n">
-        <v>0.1903118515776664</v>
+        <v>0.19031185256264</v>
       </c>
     </row>
     <row r="109">
@@ -5871,49 +5871,49 @@
         <v>44925</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.00822139781788149</v>
+        <v>-0.008221397636183845</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.006683839987027419</v>
+        <v>-0.006683841380771985</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.006994942671353168</v>
+        <v>-0.006994942708224719</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.005753433007049005</v>
+        <v>-0.005753432845168398</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.007922511517314526</v>
+        <v>-0.007922511312581305</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.01398535355042498</v>
+        <v>-0.01398535342272076</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.01533117373071097</v>
+        <v>-0.0153311734634643</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.01051727818203094</v>
+        <v>-0.01051727855487989</v>
       </c>
       <c r="J109" t="n">
-        <v>5.81999780220107e-05</v>
+        <v>5.820002511625593e-05</v>
       </c>
       <c r="K109" t="n">
-        <v>0.01486430031452167</v>
+        <v>0.01486430014779248</v>
       </c>
       <c r="L109" t="n">
-        <v>0.03565041735170602</v>
+        <v>0.03565041754864558</v>
       </c>
       <c r="M109" t="n">
-        <v>0.05715764928155704</v>
+        <v>0.05715764922597191</v>
       </c>
       <c r="N109" t="n">
-        <v>0.08014048161874973</v>
+        <v>0.08014048179759461</v>
       </c>
       <c r="O109" t="n">
-        <v>0.120703057970491</v>
+        <v>0.1207030592302744</v>
       </c>
       <c r="P109" t="n">
-        <v>0.1746509263766106</v>
+        <v>0.174650926479911</v>
       </c>
     </row>
     <row r="110">
@@ -5921,49 +5921,49 @@
         <v>44957</v>
       </c>
       <c r="B110" t="n">
-        <v>0.02204347473736436</v>
+        <v>0.02204347456024586</v>
       </c>
       <c r="C110" t="n">
-        <v>0.02010259497302443</v>
+        <v>0.02010259608270399</v>
       </c>
       <c r="D110" t="n">
-        <v>0.02459495761505332</v>
+        <v>0.02459495746189319</v>
       </c>
       <c r="E110" t="n">
-        <v>0.02766714078783742</v>
+        <v>0.02766714074683096</v>
       </c>
       <c r="F110" t="n">
-        <v>0.03081740472029058</v>
+        <v>0.03081740493309214</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03108325414710717</v>
+        <v>0.03108325402364334</v>
       </c>
       <c r="H110" t="n">
-        <v>0.03052727833683124</v>
+        <v>0.03052727821333893</v>
       </c>
       <c r="I110" t="n">
-        <v>0.03836921769686494</v>
+        <v>0.03836921795370937</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04663944715334861</v>
+        <v>0.04663944705853856</v>
       </c>
       <c r="K110" t="n">
-        <v>0.06112573048177922</v>
+        <v>0.06112573035191486</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07503637038330051</v>
+        <v>0.07503637161656784</v>
       </c>
       <c r="M110" t="n">
-        <v>0.09161960932202161</v>
+        <v>0.09161960761119116</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1133422869608795</v>
+        <v>0.1133422858232861</v>
       </c>
       <c r="O110" t="n">
-        <v>0.1413131313478019</v>
+        <v>0.1413131266620916</v>
       </c>
       <c r="P110" t="n">
-        <v>0.1370911712074577</v>
+        <v>0.137091172227289</v>
       </c>
     </row>
     <row r="111">
@@ -5971,49 +5971,49 @@
         <v>44985</v>
       </c>
       <c r="B111" t="n">
-        <v>0.01075208864374723</v>
+        <v>0.01075208827116594</v>
       </c>
       <c r="C111" t="n">
-        <v>0.02136724417954977</v>
+        <v>0.02136724293583564</v>
       </c>
       <c r="D111" t="n">
-        <v>0.006118117200791221</v>
+        <v>0.006118117157888871</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01169575182597599</v>
+        <v>0.01169575180286161</v>
       </c>
       <c r="F111" t="n">
-        <v>0.01349794965726255</v>
+        <v>0.01349795010449518</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.0006884765627394706</v>
+        <v>-0.0006884765476579727</v>
       </c>
       <c r="H111" t="n">
-        <v>0.002470749918334322</v>
+        <v>0.002470749795356458</v>
       </c>
       <c r="I111" t="n">
-        <v>0.006482280807886839</v>
+        <v>0.006482280701547518</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0114063314969245</v>
+        <v>0.01140633167657671</v>
       </c>
       <c r="K111" t="n">
-        <v>0.01702111220792243</v>
+        <v>0.01702111194708181</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0181701150486307</v>
+        <v>0.01817011487793312</v>
       </c>
       <c r="M111" t="n">
-        <v>0.01551227571975241</v>
+        <v>0.01551227473545323</v>
       </c>
       <c r="N111" t="n">
-        <v>0.01453093245031915</v>
+        <v>0.01453093174288617</v>
       </c>
       <c r="O111" t="n">
-        <v>0.002177220901009802</v>
+        <v>0.002177217822952645</v>
       </c>
       <c r="P111" t="n">
-        <v>-0.03076439293326052</v>
+        <v>-0.0307643930226</v>
       </c>
     </row>
     <row r="112">
@@ -6021,49 +6021,49 @@
         <v>45016</v>
       </c>
       <c r="B112" t="n">
-        <v>0.003170516405003166</v>
+        <v>0.003170516283184352</v>
       </c>
       <c r="C112" t="n">
-        <v>0.00586678827592208</v>
+        <v>0.005866787195173602</v>
       </c>
       <c r="D112" t="n">
-        <v>0.008421500770017777</v>
+        <v>0.008421500817863945</v>
       </c>
       <c r="E112" t="n">
-        <v>0.01221291893495492</v>
+        <v>0.01221291892829942</v>
       </c>
       <c r="F112" t="n">
-        <v>0.01620658792910885</v>
+        <v>0.01620658784920882</v>
       </c>
       <c r="G112" t="n">
-        <v>0.01989853020993738</v>
+        <v>0.01989853028401582</v>
       </c>
       <c r="H112" t="n">
-        <v>0.02284024349836951</v>
+        <v>0.02284024335719668</v>
       </c>
       <c r="I112" t="n">
-        <v>0.02596869356780206</v>
+        <v>0.02596869386426905</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03336160530694122</v>
+        <v>0.03336160477203072</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03681255272523072</v>
+        <v>0.0368125523895946</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04362535829519604</v>
+        <v>0.04362535986248132</v>
       </c>
       <c r="M112" t="n">
-        <v>0.05229495545953353</v>
+        <v>0.05229495476003054</v>
       </c>
       <c r="N112" t="n">
-        <v>0.06855939817165931</v>
+        <v>0.06855939718570647</v>
       </c>
       <c r="O112" t="n">
-        <v>0.09250809131102834</v>
+        <v>0.09250808597643347</v>
       </c>
       <c r="P112" t="n">
-        <v>0.0649470445168366</v>
+        <v>0.06494704458358297</v>
       </c>
     </row>
     <row r="113">
@@ -6071,49 +6071,49 @@
         <v>45044</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0404987280755278</v>
+        <v>0.04049872782040299</v>
       </c>
       <c r="C113" t="n">
-        <v>0.04051974785853579</v>
+        <v>0.04051974766631183</v>
       </c>
       <c r="D113" t="n">
-        <v>0.04276819785595694</v>
+        <v>0.04276819779937827</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0460233901872037</v>
+        <v>0.04602339023939821</v>
       </c>
       <c r="F113" t="n">
-        <v>0.04685772715361175</v>
+        <v>0.04685772760825277</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04923058685877939</v>
+        <v>0.04923058681614288</v>
       </c>
       <c r="H113" t="n">
-        <v>0.04413214077692229</v>
+        <v>0.04413214064190074</v>
       </c>
       <c r="I113" t="n">
-        <v>0.03999605749670588</v>
+        <v>0.03999605755875516</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03198122288780564</v>
+        <v>0.03198122324691369</v>
       </c>
       <c r="K113" t="n">
-        <v>0.02308130095885334</v>
+        <v>0.02308130099798908</v>
       </c>
       <c r="L113" t="n">
-        <v>0.01940886024811547</v>
+        <v>0.01940886008691157</v>
       </c>
       <c r="M113" t="n">
-        <v>0.02003432018367645</v>
+        <v>0.0200343202377164</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02387785343365269</v>
+        <v>0.02387785415367431</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03612060500307998</v>
+        <v>0.03612060604140345</v>
       </c>
       <c r="P113" t="n">
-        <v>0.05949789344639952</v>
+        <v>0.0594978938383967</v>
       </c>
     </row>
     <row r="114">
@@ -6121,49 +6121,49 @@
         <v>45077</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.02615415878305288</v>
+        <v>-0.0261541586266304</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.02673858938781355</v>
+        <v>-0.02673858879618975</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.0276121113843143</v>
+        <v>-0.02761211129676458</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.03117235945646649</v>
+        <v>-0.03117235974726548</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.02903522897225334</v>
+        <v>-0.0290352293268065</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.02012793201854413</v>
+        <v>-0.02012793198066884</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.01255195148346034</v>
+        <v>-0.01255195154173147</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.01730447336970045</v>
+        <v>-0.01730447333604063</v>
       </c>
       <c r="J114" t="n">
-        <v>-0.02770862464829853</v>
+        <v>-0.02770862466161872</v>
       </c>
       <c r="K114" t="n">
-        <v>-0.03166837620750898</v>
+        <v>-0.03166837612562121</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.03849007182086965</v>
+        <v>-0.03849007190250368</v>
       </c>
       <c r="M114" t="n">
-        <v>-0.04235135042092728</v>
+        <v>-0.04235134937533244</v>
       </c>
       <c r="N114" t="n">
-        <v>-0.05881073461826067</v>
+        <v>-0.05881073405747023</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.07611945446020452</v>
+        <v>-0.07611945063819897</v>
       </c>
       <c r="P114" t="n">
-        <v>-0.0596483088860096</v>
+        <v>-0.05964830944191832</v>
       </c>
     </row>
     <row r="115">
@@ -6171,49 +6171,49 @@
         <v>45107</v>
       </c>
       <c r="B115" t="n">
-        <v>0.001998551526237762</v>
+        <v>0.00199855130857551</v>
       </c>
       <c r="C115" t="n">
-        <v>0.007514896762874332</v>
+        <v>0.00751489702052818</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01292775668841516</v>
+        <v>0.01292775678443389</v>
       </c>
       <c r="E115" t="n">
-        <v>0.01765166273126043</v>
+        <v>0.01765166268352124</v>
       </c>
       <c r="F115" t="n">
-        <v>0.02297895644124411</v>
+        <v>0.02297895657246931</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02382200089649882</v>
+        <v>0.02382200082883918</v>
       </c>
       <c r="H115" t="n">
-        <v>0.02714013302236029</v>
+        <v>0.02714013275657744</v>
       </c>
       <c r="I115" t="n">
-        <v>0.04038828403581847</v>
+        <v>0.04038828416700573</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0604000563872948</v>
+        <v>0.06040005638950454</v>
       </c>
       <c r="K115" t="n">
-        <v>0.06877280029876795</v>
+        <v>0.06877280005231153</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07957545536492222</v>
+        <v>0.07957545605751712</v>
       </c>
       <c r="M115" t="n">
-        <v>0.09420817174517135</v>
+        <v>0.09420816991894986</v>
       </c>
       <c r="N115" t="n">
-        <v>0.118542371587917</v>
+        <v>0.1185423698140853</v>
       </c>
       <c r="O115" t="n">
-        <v>0.1507706918001565</v>
+        <v>0.1507706902591239</v>
       </c>
       <c r="P115" t="n">
-        <v>0.184090971375958</v>
+        <v>0.1840909716983822</v>
       </c>
     </row>
     <row r="116">
@@ -6221,49 +6221,49 @@
         <v>45138</v>
       </c>
       <c r="B116" t="n">
-        <v>0.01913627313029151</v>
+        <v>0.01913627352325364</v>
       </c>
       <c r="C116" t="n">
-        <v>0.01615063987317073</v>
+        <v>0.01615064033838021</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01412768058145399</v>
+        <v>0.01412768070628087</v>
       </c>
       <c r="E116" t="n">
-        <v>0.01109392340105626</v>
+        <v>0.01109392339410651</v>
       </c>
       <c r="F116" t="n">
-        <v>0.01022371703520945</v>
+        <v>0.01022371637003779</v>
       </c>
       <c r="G116" t="n">
-        <v>0.01316405718977089</v>
+        <v>0.01316405713857556</v>
       </c>
       <c r="H116" t="n">
-        <v>0.01550488296395697</v>
+        <v>0.0155048830205819</v>
       </c>
       <c r="I116" t="n">
-        <v>0.023265353066106</v>
+        <v>0.02326535317510008</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03389822576455883</v>
+        <v>0.03389822576495732</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04010706589279185</v>
+        <v>0.04010706601865909</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04685832441431847</v>
+        <v>0.04685832386756358</v>
       </c>
       <c r="M116" t="n">
-        <v>0.05328041171816594</v>
+        <v>0.05328041075168845</v>
       </c>
       <c r="N116" t="n">
-        <v>0.05643357882084811</v>
+        <v>0.05643357902935303</v>
       </c>
       <c r="O116" t="n">
-        <v>0.06627012848078502</v>
+        <v>0.06627012769124621</v>
       </c>
       <c r="P116" t="n">
-        <v>0.07968873726647979</v>
+        <v>0.07968873770667043</v>
       </c>
     </row>
     <row r="117">
@@ -6271,49 +6271,49 @@
         <v>45169</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.02224591657096896</v>
+        <v>-0.02224591678255531</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.02186751226058729</v>
+        <v>-0.021867512988602</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.02080685168831212</v>
+        <v>-0.02080685176919938</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.01946935888863073</v>
+        <v>-0.01946935871328543</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.01723604579859506</v>
+        <v>-0.01723604601490559</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.02013061788202283</v>
+        <v>-0.02013061805566186</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.02109953642425042</v>
+        <v>-0.02109953623180391</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.02528015931530193</v>
+        <v>-0.02528015937816462</v>
       </c>
       <c r="J117" t="n">
-        <v>-0.03033625172870287</v>
+        <v>-0.03033625192825705</v>
       </c>
       <c r="K117" t="n">
-        <v>-0.03227776573822626</v>
+        <v>-0.03227776580961311</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.03388561021482581</v>
+        <v>-0.03388560952524436</v>
       </c>
       <c r="M117" t="n">
-        <v>-0.04124146785498262</v>
+        <v>-0.04124146721704187</v>
       </c>
       <c r="N117" t="n">
-        <v>-0.05034164385458012</v>
+        <v>-0.05034164450958617</v>
       </c>
       <c r="O117" t="n">
-        <v>-0.061421644697905</v>
+        <v>-0.06142164395596128</v>
       </c>
       <c r="P117" t="n">
-        <v>-0.07374728768144853</v>
+        <v>-0.07374728806577988</v>
       </c>
     </row>
     <row r="118">
@@ -6321,49 +6321,49 @@
         <v>45198</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.01056655404739346</v>
+        <v>-0.01056655339153015</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.01134878962833277</v>
+        <v>-0.01134878922566589</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.01147407078560697</v>
+        <v>-0.01147407056572926</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.01385234158517532</v>
+        <v>-0.01385234160482165</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.013734240553027</v>
+        <v>-0.0137342408175951</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.0108305527576325</v>
+        <v>-0.01083055255340296</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.005476112163837497</v>
+        <v>-0.005476112038156788</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.0006565073144135548</v>
+        <v>-0.0006565075486176129</v>
       </c>
       <c r="J118" t="n">
-        <v>-3.873708919583871e-05</v>
+        <v>-3.873732894258627e-05</v>
       </c>
       <c r="K118" t="n">
-        <v>-0.01280980797413601</v>
+        <v>-0.01280980824210222</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.01933239212613306</v>
+        <v>-0.01933239168992332</v>
       </c>
       <c r="M118" t="n">
-        <v>-0.02623061459998614</v>
+        <v>-0.02623061477969839</v>
       </c>
       <c r="N118" t="n">
-        <v>-0.03633374692082298</v>
+        <v>-0.03633374763878755</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.05256853102121632</v>
+        <v>-0.05256852960136044</v>
       </c>
       <c r="P118" t="n">
-        <v>-0.05453328073945925</v>
+        <v>-0.05453328112256679</v>
       </c>
     </row>
     <row r="119">
@@ -6371,49 +6371,49 @@
         <v>45230</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.01301600345155139</v>
+        <v>-0.01301600316918758</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.01306242305550935</v>
+        <v>-0.01306242145914186</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.009584699433223841</v>
+        <v>-0.009584699608774901</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.006684064694012917</v>
+        <v>-0.006684064537249689</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.004792701433428292</v>
+        <v>-0.004792700956396054</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.01071026211571208</v>
+        <v>-0.01071026207776999</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.01550408609301091</v>
+        <v>-0.01550408600009363</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.01047347038324931</v>
+        <v>-0.01047347047917229</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.004106338059143757</v>
+        <v>-0.004106338120938068</v>
       </c>
       <c r="K119" t="n">
-        <v>-0.002655475372876789</v>
+        <v>-0.002655475656597049</v>
       </c>
       <c r="L119" t="n">
-        <v>-0.002558723374176234</v>
+        <v>-0.00255872293248742</v>
       </c>
       <c r="M119" t="n">
-        <v>-0.003447742775103853</v>
+        <v>-0.003447743504659513</v>
       </c>
       <c r="N119" t="n">
-        <v>-0.003921646909476217</v>
+        <v>-0.003921648559150684</v>
       </c>
       <c r="O119" t="n">
-        <v>-0.02083820369208121</v>
+        <v>-0.02083820766133548</v>
       </c>
       <c r="P119" t="n">
-        <v>-0.07118661614803347</v>
+        <v>-0.07118661663806373</v>
       </c>
     </row>
     <row r="120">
@@ -6421,49 +6421,49 @@
         <v>45260</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0293078268798429</v>
+        <v>0.02930782663479171</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0294552925181234</v>
+        <v>0.02945529242911031</v>
       </c>
       <c r="D120" t="n">
-        <v>0.04122753077757338</v>
+        <v>0.04122753093645231</v>
       </c>
       <c r="E120" t="n">
-        <v>0.04890477878612891</v>
+        <v>0.04890477877006392</v>
       </c>
       <c r="F120" t="n">
-        <v>0.05749880205181836</v>
+        <v>0.05749880180294364</v>
       </c>
       <c r="G120" t="n">
-        <v>0.06481879006011304</v>
+        <v>0.06481879003034753</v>
       </c>
       <c r="H120" t="n">
-        <v>0.07253741788513002</v>
+        <v>0.07253741788503154</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0766606328923794</v>
+        <v>0.07666063293163455</v>
       </c>
       <c r="J120" t="n">
-        <v>0.08381010975406872</v>
+        <v>0.08381011000104001</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09197457816585479</v>
+        <v>0.09197457845172351</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09478645893749735</v>
+        <v>0.09478645770644148</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09834405263772664</v>
+        <v>0.09834405037614932</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1010102863407591</v>
+        <v>0.1010102863256909</v>
       </c>
       <c r="O120" t="n">
-        <v>0.1069512127447939</v>
+        <v>0.1069512117333023</v>
       </c>
       <c r="P120" t="n">
-        <v>0.1314805606797817</v>
+        <v>0.1314805616401431</v>
       </c>
     </row>
     <row r="121">
@@ -6471,49 +6471,49 @@
         <v>45289</v>
       </c>
       <c r="B121" t="n">
-        <v>0.01968211132184937</v>
+        <v>0.01968211132459008</v>
       </c>
       <c r="C121" t="n">
-        <v>0.01944802501349935</v>
+        <v>0.01944802475115352</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02170565321417434</v>
+        <v>0.02170565317766112</v>
       </c>
       <c r="E121" t="n">
-        <v>0.02190918273850013</v>
+        <v>0.0219091825676614</v>
       </c>
       <c r="F121" t="n">
-        <v>0.02255299248296253</v>
+        <v>0.02255299228398978</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02715972405912318</v>
+        <v>0.0271597240507336</v>
       </c>
       <c r="H121" t="n">
-        <v>0.02886451629726688</v>
+        <v>0.02886451616257386</v>
       </c>
       <c r="I121" t="n">
-        <v>0.02911492348594785</v>
+        <v>0.02911492388936576</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02658095877957999</v>
+        <v>0.0265809586745147</v>
       </c>
       <c r="K121" t="n">
-        <v>0.02636059380678071</v>
+        <v>0.02636059371861518</v>
       </c>
       <c r="L121" t="n">
-        <v>0.01868068037172142</v>
+        <v>0.01868068058324565</v>
       </c>
       <c r="M121" t="n">
-        <v>0.00720437146567161</v>
+        <v>0.007204370560095282</v>
       </c>
       <c r="N121" t="n">
-        <v>-0.009329878564469731</v>
+        <v>-0.009329879431236834</v>
       </c>
       <c r="O121" t="n">
-        <v>-0.03509281571358771</v>
+        <v>-0.03509281801920447</v>
       </c>
       <c r="P121" t="n">
-        <v>-0.0719890552237903</v>
+        <v>-0.07198905462465831</v>
       </c>
     </row>
     <row r="122">
@@ -6521,49 +6521,49 @@
         <v>45322</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.005585008332463066</v>
+        <v>-0.005585008820803517</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.005758619883017045</v>
+        <v>-0.005758619597879345</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.003514273339910109</v>
+        <v>-0.003514273462570886</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.001661265280359635</v>
+        <v>-0.001661265434142542</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.000269897195215486</v>
+        <v>-0.000269897475155602</v>
       </c>
       <c r="G122" t="n">
-        <v>0.003172956251967742</v>
+        <v>0.003172956226401295</v>
       </c>
       <c r="H122" t="n">
-        <v>0.01105556723184408</v>
+        <v>0.01105556728833853</v>
       </c>
       <c r="I122" t="n">
-        <v>0.02660822476386224</v>
+        <v>0.02660822477143291</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03850939052895221</v>
+        <v>0.03850939061307144</v>
       </c>
       <c r="K122" t="n">
-        <v>0.05361533080743046</v>
+        <v>0.05361533031129589</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06700009398793763</v>
+        <v>0.06700009473717757</v>
       </c>
       <c r="M122" t="n">
-        <v>0.07206430170761512</v>
+        <v>0.07206429904446109</v>
       </c>
       <c r="N122" t="n">
-        <v>0.06859767924714158</v>
+        <v>0.06859767591436433</v>
       </c>
       <c r="O122" t="n">
-        <v>0.03996830061575894</v>
+        <v>0.03996829708009206</v>
       </c>
       <c r="P122" t="n">
-        <v>0.0145981603403813</v>
+        <v>0.01459816018509826</v>
       </c>
     </row>
     <row r="123">
@@ -6571,49 +6571,49 @@
         <v>45351</v>
       </c>
       <c r="B123" t="n">
-        <v>0.00209190093520018</v>
+        <v>0.002091901575436265</v>
       </c>
       <c r="C123" t="n">
-        <v>0.009083590947412932</v>
+        <v>0.009083593258627284</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01402399505950879</v>
+        <v>0.01402399510821886</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0217146106333233</v>
+        <v>0.02171461050982028</v>
       </c>
       <c r="F123" t="n">
-        <v>0.03326405188095046</v>
+        <v>0.03326405180240966</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04684666153251586</v>
+        <v>0.04684666148459588</v>
       </c>
       <c r="H123" t="n">
-        <v>0.06790808974979499</v>
+        <v>0.06790808972437853</v>
       </c>
       <c r="I123" t="n">
-        <v>0.08135061357240982</v>
+        <v>0.08135061377298428</v>
       </c>
       <c r="J123" t="n">
-        <v>0.09012083114174782</v>
+        <v>0.09012083148270673</v>
       </c>
       <c r="K123" t="n">
-        <v>0.1016426542472687</v>
+        <v>0.1016426541389931</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1062188871477129</v>
+        <v>0.1062188871515223</v>
       </c>
       <c r="M123" t="n">
-        <v>0.111003050451359</v>
+        <v>0.1110030452319232</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1039403027099376</v>
+        <v>0.1039402975700455</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04407859220362956</v>
+        <v>0.0440785816376575</v>
       </c>
       <c r="P123" t="n">
-        <v>-0.05681747013411564</v>
+        <v>-0.05681747023560526</v>
       </c>
     </row>
     <row r="124">
@@ -6621,49 +6621,49 @@
         <v>45380</v>
       </c>
       <c r="B124" t="n">
-        <v>0.008787700558669665</v>
+        <v>0.008787700568185307</v>
       </c>
       <c r="C124" t="n">
-        <v>0.009417737580489857</v>
+        <v>0.009417737109907495</v>
       </c>
       <c r="D124" t="n">
-        <v>0.008238634657384915</v>
+        <v>0.008238634616003195</v>
       </c>
       <c r="E124" t="n">
-        <v>0.006055399534296292</v>
+        <v>0.006055399581318606</v>
       </c>
       <c r="F124" t="n">
-        <v>0.002403279898521419</v>
+        <v>0.002403279991272579</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.003570439107650122</v>
+        <v>-0.003570439266984203</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.001194416228675737</v>
+        <v>-0.00119441610195716</v>
       </c>
       <c r="I124" t="n">
-        <v>0.01167182418543596</v>
+        <v>0.01167182404279765</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02776738400271729</v>
+        <v>0.02776738387269131</v>
       </c>
       <c r="K124" t="n">
-        <v>0.05148435784753193</v>
+        <v>0.05148435755913761</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07316427876525888</v>
+        <v>0.07316427938902045</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0883224834727012</v>
+        <v>0.08832248106915526</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1007455978400471</v>
+        <v>0.1007455958380811</v>
       </c>
       <c r="O124" t="n">
-        <v>0.1053640842146215</v>
+        <v>0.1053640774172536</v>
       </c>
       <c r="P124" t="n">
-        <v>0.06608236463331134</v>
+        <v>0.06608236491241298</v>
       </c>
     </row>
     <row r="125">
@@ -6671,49 +6671,49 @@
         <v>45412</v>
       </c>
       <c r="B125" t="n">
-        <v>0.008347650599714325</v>
+        <v>0.008347650553745298</v>
       </c>
       <c r="C125" t="n">
-        <v>0.001492180383385427</v>
+        <v>0.001492179891421839</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.005002668111843897</v>
+        <v>-0.005002668169271031</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.01296063058664482</v>
+        <v>-0.01296063056477109</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.0213094167847604</v>
+        <v>-0.02130941658123133</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.02277112378141918</v>
+        <v>-0.02277112374433189</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.02147022635518239</v>
+        <v>-0.02147022640270347</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.02138016358667983</v>
+        <v>-0.02138016371868692</v>
       </c>
       <c r="J125" t="n">
-        <v>-0.02284085377024251</v>
+        <v>-0.02284085351680235</v>
       </c>
       <c r="K125" t="n">
-        <v>-0.02360031155590939</v>
+        <v>-0.02360031149789609</v>
       </c>
       <c r="L125" t="n">
-        <v>-0.02108181574199685</v>
+        <v>-0.02108181584549811</v>
       </c>
       <c r="M125" t="n">
-        <v>-0.01855938206433954</v>
+        <v>-0.01855938209769156</v>
       </c>
       <c r="N125" t="n">
-        <v>-0.01362337854635169</v>
+        <v>-0.01362337891584647</v>
       </c>
       <c r="O125" t="n">
-        <v>-0.01228603986758175</v>
+        <v>-0.01228603939418379</v>
       </c>
       <c r="P125" t="n">
-        <v>-0.01119695632295569</v>
+        <v>-0.01119695637313617</v>
       </c>
     </row>
     <row r="126">
@@ -6721,49 +6721,49 @@
         <v>45443</v>
       </c>
       <c r="B126" t="n">
-        <v>0.02212589565093321</v>
+        <v>0.02212589624863514</v>
       </c>
       <c r="C126" t="n">
-        <v>0.01643071803018708</v>
+        <v>0.01643071801712558</v>
       </c>
       <c r="D126" t="n">
-        <v>0.02032351642691926</v>
+        <v>0.02032351623596505</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0176418616374835</v>
+        <v>0.01764186167827158</v>
       </c>
       <c r="F126" t="n">
-        <v>0.01661926628982004</v>
+        <v>0.01661926605058505</v>
       </c>
       <c r="G126" t="n">
-        <v>0.02086974114830871</v>
+        <v>0.02086974133478934</v>
       </c>
       <c r="H126" t="n">
-        <v>0.02741289355729181</v>
+        <v>0.02741289354014399</v>
       </c>
       <c r="I126" t="n">
-        <v>0.03610118194715117</v>
+        <v>0.03610118198466697</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04109531148716808</v>
+        <v>0.04109531123852937</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04261245122203239</v>
+        <v>0.04261245091347225</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04699438134998015</v>
+        <v>0.0469943818623681</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04222722736045119</v>
+        <v>0.04222722653947345</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0328295019916864</v>
+        <v>0.03282950149342659</v>
       </c>
       <c r="O126" t="n">
-        <v>0.02961058572921742</v>
+        <v>0.02961058436160569</v>
       </c>
       <c r="P126" t="n">
-        <v>0.02450653333230289</v>
+        <v>0.02450653392957466</v>
       </c>
     </row>
     <row r="127">
@@ -6771,49 +6771,49 @@
         <v>45471</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.01026289004269287</v>
+        <v>-0.01026289005617205</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.001854358251196161</v>
+        <v>-0.001854358635782618</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0002594464118364816</v>
+        <v>0.0002594462721740515</v>
       </c>
       <c r="E127" t="n">
-        <v>0.005797392143245686</v>
+        <v>0.005797392201463277</v>
       </c>
       <c r="F127" t="n">
-        <v>0.01041466587486022</v>
+        <v>0.01041466571720629</v>
       </c>
       <c r="G127" t="n">
-        <v>0.01278708460842275</v>
+        <v>0.01278708427387094</v>
       </c>
       <c r="H127" t="n">
-        <v>0.00768409683853968</v>
+        <v>0.007684096722766512</v>
       </c>
       <c r="I127" t="n">
-        <v>0.001564086003400297</v>
+        <v>0.001564085781491217</v>
       </c>
       <c r="J127" t="n">
-        <v>-0.00931670671438517</v>
+        <v>-0.00931670647845682</v>
       </c>
       <c r="K127" t="n">
-        <v>-0.01071766519609739</v>
+        <v>-0.01071766494557646</v>
       </c>
       <c r="L127" t="n">
-        <v>-0.01159274512410403</v>
+        <v>-0.01159274632432282</v>
       </c>
       <c r="M127" t="n">
-        <v>-0.0131621859847367</v>
+        <v>-0.01316218460414002</v>
       </c>
       <c r="N127" t="n">
-        <v>-0.008030755617655868</v>
+        <v>-0.008030753715343605</v>
       </c>
       <c r="O127" t="n">
-        <v>0.01131067702558177</v>
+        <v>0.01131068122128298</v>
       </c>
       <c r="P127" t="n">
-        <v>0.06096516238741082</v>
+        <v>0.06096516199297482</v>
       </c>
     </row>
     <row r="128">
@@ -6821,49 +6821,49 @@
         <v>45504</v>
       </c>
       <c r="B128" t="n">
-        <v>0.03178596487848884</v>
+        <v>0.03178596494594502</v>
       </c>
       <c r="C128" t="n">
-        <v>0.03632364010785509</v>
+        <v>0.03632364033549031</v>
       </c>
       <c r="D128" t="n">
-        <v>0.03788688091361709</v>
+        <v>0.03788688098690471</v>
       </c>
       <c r="E128" t="n">
-        <v>0.03495723710377351</v>
+        <v>0.03495723703194413</v>
       </c>
       <c r="F128" t="n">
-        <v>0.03152998431967646</v>
+        <v>0.03152998416795623</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03017054824631642</v>
+        <v>0.0301705480246542</v>
       </c>
       <c r="H128" t="n">
-        <v>0.02387284932598579</v>
+        <v>0.02387284946809179</v>
       </c>
       <c r="I128" t="n">
-        <v>0.01732342254107741</v>
+        <v>0.01732342230183249</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0139302357138508</v>
+        <v>0.01393023536489933</v>
       </c>
       <c r="K128" t="n">
-        <v>0.01972525724975755</v>
+        <v>0.01972525679955</v>
       </c>
       <c r="L128" t="n">
-        <v>0.02497638846150906</v>
+        <v>0.02497638933993572</v>
       </c>
       <c r="M128" t="n">
-        <v>0.02163937456593143</v>
+        <v>0.02163937354567829</v>
       </c>
       <c r="N128" t="n">
-        <v>0.01508496234659503</v>
+        <v>0.01508496220865971</v>
       </c>
       <c r="O128" t="n">
-        <v>0.008321513029731054</v>
+        <v>0.008321510266088626</v>
       </c>
       <c r="P128" t="n">
-        <v>-0.01913642719042991</v>
+        <v>-0.01913642670618683</v>
       </c>
     </row>
     <row r="129">
@@ -6871,49 +6871,49 @@
         <v>45534</v>
       </c>
       <c r="B129" t="n">
-        <v>0.02329987611086164</v>
+        <v>0.02329987612776224</v>
       </c>
       <c r="C129" t="n">
-        <v>0.02479728374014387</v>
+        <v>0.02479728338002626</v>
       </c>
       <c r="D129" t="n">
-        <v>0.03275095022326767</v>
+        <v>0.03275095023562052</v>
       </c>
       <c r="E129" t="n">
-        <v>0.03630224419182908</v>
+        <v>0.03630224410168258</v>
       </c>
       <c r="F129" t="n">
-        <v>0.03955896735988127</v>
+        <v>0.03955896743830423</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04653608633818464</v>
+        <v>0.0465360861570274</v>
       </c>
       <c r="H129" t="n">
-        <v>0.04835891172963709</v>
+        <v>0.04835891148672504</v>
       </c>
       <c r="I129" t="n">
-        <v>0.04688238915491238</v>
+        <v>0.04688238932849692</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04440525713782317</v>
+        <v>0.04440525770712511</v>
       </c>
       <c r="K129" t="n">
-        <v>0.03935095399914354</v>
+        <v>0.03935095412880626</v>
       </c>
       <c r="L129" t="n">
-        <v>0.03836262317531844</v>
+        <v>0.03836262275405608</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04558055610225673</v>
+        <v>0.04558055465070066</v>
       </c>
       <c r="N129" t="n">
-        <v>0.05549827745055866</v>
+        <v>0.0554982769410407</v>
       </c>
       <c r="O129" t="n">
-        <v>0.06070126598018019</v>
+        <v>0.06070126310783269</v>
       </c>
       <c r="P129" t="n">
-        <v>0.04948593165443987</v>
+        <v>0.04948593188780832</v>
       </c>
     </row>
     <row r="130">
@@ -6921,49 +6921,49 @@
         <v>45565</v>
       </c>
       <c r="B130" t="n">
-        <v>0.001720393167001436</v>
+        <v>0.001720393215634509</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.001685843594602439</v>
+        <v>-0.001685843519625475</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0008012546263460613</v>
+        <v>0.000801254643093806</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0001585751611074683</v>
+        <v>0.0001585751613314844</v>
       </c>
       <c r="F130" t="n">
-        <v>4.340888155601741e-05</v>
+        <v>4.34087143910578e-05</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.00356282900121364</v>
+        <v>-0.003562828947608055</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.00850262680982895</v>
+        <v>-0.008502626995634532</v>
       </c>
       <c r="I130" t="n">
-        <v>-0.009890433448738457</v>
+        <v>-0.00989043315468548</v>
       </c>
       <c r="J130" t="n">
-        <v>-0.006374608062854581</v>
+        <v>-0.00637460808420028</v>
       </c>
       <c r="K130" t="n">
-        <v>-0.0045848355162286</v>
+        <v>-0.004584835251092375</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.0060978127010059</v>
+        <v>-0.006097813015832598</v>
       </c>
       <c r="M130" t="n">
-        <v>-0.007967892360217214</v>
+        <v>-0.007967891714496057</v>
       </c>
       <c r="N130" t="n">
-        <v>-0.006924219325519069</v>
+        <v>-0.00692421821748701</v>
       </c>
       <c r="O130" t="n">
-        <v>0.008179348769981491</v>
+        <v>0.008179352245647576</v>
       </c>
       <c r="P130" t="n">
-        <v>0.04891638613589524</v>
+        <v>0.04891638628513672</v>
       </c>
     </row>
     <row r="131">
@@ -6971,49 +6971,49 @@
         <v>45596</v>
       </c>
       <c r="B131" t="n">
-        <v>0.004101573265575151</v>
+        <v>0.00410157331125004</v>
       </c>
       <c r="C131" t="n">
-        <v>0.007839827816386164</v>
+        <v>0.007839828631823137</v>
       </c>
       <c r="D131" t="n">
-        <v>0.003121795653090228</v>
+        <v>0.003121795742161426</v>
       </c>
       <c r="E131" t="n">
-        <v>0.00157734627782507</v>
+        <v>0.001577346197461612</v>
       </c>
       <c r="F131" t="n">
-        <v>0.001313444146736792</v>
+        <v>0.001313444446569131</v>
       </c>
       <c r="G131" t="n">
-        <v>0.001806176248573586</v>
+        <v>0.001806176435834514</v>
       </c>
       <c r="H131" t="n">
-        <v>0.001301088271511554</v>
+        <v>0.001301088192913245</v>
       </c>
       <c r="I131" t="n">
-        <v>0.003576410252726735</v>
+        <v>0.00357641005322702</v>
       </c>
       <c r="J131" t="n">
-        <v>0.00302740041108234</v>
+        <v>0.003027400213064326</v>
       </c>
       <c r="K131" t="n">
-        <v>-0.0003101938059722146</v>
+        <v>-0.0003101941272127001</v>
       </c>
       <c r="L131" t="n">
-        <v>4.999238806772596e-05</v>
+        <v>4.99928341735199e-05</v>
       </c>
       <c r="M131" t="n">
-        <v>0.007541029819039185</v>
+        <v>0.007541030035928835</v>
       </c>
       <c r="N131" t="n">
-        <v>0.01731991588593126</v>
+        <v>0.01731991626232325</v>
       </c>
       <c r="O131" t="n">
-        <v>0.03738688718773174</v>
+        <v>0.03738688940431579</v>
       </c>
       <c r="P131" t="n">
-        <v>0.07407278165588446</v>
+        <v>0.07407278109170609</v>
       </c>
     </row>
     <row r="132">
@@ -7021,49 +7021,49 @@
         <v>45625</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.006615791759803985</v>
+        <v>-0.00661579198683805</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.0007647181071549995</v>
+        <v>-0.0007647172962105828</v>
       </c>
       <c r="D132" t="n">
-        <v>0.005197748023502835</v>
+        <v>0.00519774807601023</v>
       </c>
       <c r="E132" t="n">
-        <v>0.008929306133331049</v>
+        <v>0.008929306111236679</v>
       </c>
       <c r="F132" t="n">
-        <v>0.01392659601107808</v>
+        <v>0.01392659580140712</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0162133924581379</v>
+        <v>0.01621339227982686</v>
       </c>
       <c r="H132" t="n">
-        <v>0.02498241606361876</v>
+        <v>0.02498241589715713</v>
       </c>
       <c r="I132" t="n">
-        <v>0.04348858123965113</v>
+        <v>0.04348858153038804</v>
       </c>
       <c r="J132" t="n">
-        <v>0.06011510799200498</v>
+        <v>0.06011510829684152</v>
       </c>
       <c r="K132" t="n">
-        <v>0.08007059562328508</v>
+        <v>0.08007059535410484</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1071611564101046</v>
+        <v>0.1071611562963505</v>
       </c>
       <c r="M132" t="n">
-        <v>0.13932176824406</v>
+        <v>0.1393217643780805</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1723296650612698</v>
+        <v>0.1723296620363062</v>
       </c>
       <c r="O132" t="n">
-        <v>0.192775393919157</v>
+        <v>0.1927753857904115</v>
       </c>
       <c r="P132" t="n">
-        <v>0.1680215526173931</v>
+        <v>0.1680215524763562</v>
       </c>
     </row>
     <row r="133">
@@ -7071,49 +7071,49 @@
         <v>45657</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.007871970352423078</v>
+        <v>-0.007871970543416989</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.002429248927465325</v>
+        <v>-0.002429248457301419</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.007480630896650194</v>
+        <v>-0.007480630756033619</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.001817698278117264</v>
+        <v>-0.001817698151405854</v>
       </c>
       <c r="F133" t="n">
-        <v>0.002816204639157985</v>
+        <v>0.002816204595817953</v>
       </c>
       <c r="G133" t="n">
-        <v>0.003344221758387352</v>
+        <v>0.003344221672207518</v>
       </c>
       <c r="H133" t="n">
-        <v>0.002156075795700617</v>
+        <v>0.002156075787259587</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.002232910425278713</v>
+        <v>-0.00223291026415494</v>
       </c>
       <c r="J133" t="n">
-        <v>-0.008367777426214928</v>
+        <v>-0.008367777696471882</v>
       </c>
       <c r="K133" t="n">
-        <v>-0.01577814619885654</v>
+        <v>-0.01577814606020717</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.02852840312641207</v>
+        <v>-0.02852840293702276</v>
       </c>
       <c r="M133" t="n">
-        <v>-0.03549013200248009</v>
+        <v>-0.03549013134161313</v>
       </c>
       <c r="N133" t="n">
-        <v>-0.04446338485498322</v>
+        <v>-0.04446338427829773</v>
       </c>
       <c r="O133" t="n">
-        <v>-0.0581769374678512</v>
+        <v>-0.05817693694817316</v>
       </c>
       <c r="P133" t="n">
-        <v>-0.07185379328828742</v>
+        <v>-0.07185379346561142</v>
       </c>
     </row>
   </sheetData>
